--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_18_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_18_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67894.03142013625</v>
+        <v>-51238.68639307673</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23098598.6444332</v>
+        <v>23273860.31561603</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1742423.774550064</v>
+        <v>1638199.653037887</v>
       </c>
     </row>
     <row r="11">
@@ -23033,49 +23035,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>408.4176323798642</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>314.5592583510934</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>113.3019575056797</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
-        <v>65.61016771286884</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>65.01946517481471</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>56.4339664610682</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>42.00059636060509</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>39.65094179247474</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>46.19673452270656</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>62.08001639703511</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>78.24807792626756</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
-        <v>101.5931080396651</v>
+        <v>140.1305995791859</v>
       </c>
       <c r="S8" t="n">
-        <v>150.8683890471842</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5800195278046</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1461226235864</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -23112,49 +23114,49 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G9" t="n">
-        <v>118.5309706766818</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>84.24424724889813</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>53.38798903266146</v>
+        <v>64.689547</v>
       </c>
       <c r="J9" t="n">
-        <v>51.43211845760855</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>36.59190862205906</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>18.78854721703357</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>9.216293543178466</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>14.58875442338393</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>24.40218892352032</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>49.08744703089221</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
-        <v>74.31144132362824</v>
+        <v>94.69167757657658</v>
       </c>
       <c r="S9" t="n">
-        <v>127.4842877824192</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
-        <v>173.8908995719998</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
-        <v>207.940916554449</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
         <v>220.3146016126436</v>
@@ -23191,49 +23193,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2963203660406</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>151.4770496226014</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>123.4876772080058</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>63.09087915316801</v>
+        <v>82.54702393560747</v>
       </c>
       <c r="K10" t="n">
-        <v>51.88619524178843</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L10" t="n">
-        <v>46.76134641422896</v>
+        <v>87.67503958280489</v>
       </c>
       <c r="M10" t="n">
-        <v>47.16400664275908</v>
+        <v>90.30175956594327</v>
       </c>
       <c r="N10" t="n">
-        <v>40.88357032611205</v>
+        <v>82.99560390240157</v>
       </c>
       <c r="O10" t="n">
-        <v>51.0994709558466</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P10" t="n">
-        <v>56.23986070246484</v>
+        <v>89.52320263194594</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.43459031707346</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R10" t="n">
-        <v>110.2883016938921</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>195.9920595939172</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>232.1860366962762</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5693933134903</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -23270,49 +23272,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>408.195414220098</v>
+        <v>408.1787945667559</v>
       </c>
       <c r="H11" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1132605975983</v>
       </c>
       <c r="I11" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0941627158228</v>
       </c>
       <c r="J11" t="n">
-        <v>46.74967917541601</v>
+        <v>45.33910687257023</v>
       </c>
       <c r="K11" t="n">
-        <v>36.75248193446046</v>
+        <v>34.63839970564274</v>
       </c>
       <c r="L11" t="n">
-        <v>21.36627421377045</v>
+        <v>18.74356826898381</v>
       </c>
       <c r="M11" t="n">
-        <v>2.981031914565961</v>
+        <v>0.06276620965638813</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>8.75547455640654</v>
+        <v>5.955249939359391</v>
       </c>
       <c r="P11" t="n">
-        <v>30.12476724996209</v>
+        <v>27.73484032479853</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.25101662582001</v>
+        <v>52.45628103597113</v>
       </c>
       <c r="R11" t="n">
-        <v>87.63419656125427</v>
+        <v>86.59021226200232</v>
       </c>
       <c r="S11" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4258723809793</v>
       </c>
       <c r="T11" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5345070009231</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1270155985377</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23349,19 +23351,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4031811807343</v>
       </c>
       <c r="H12" t="n">
-        <v>83.09595063128953</v>
+        <v>83.01006974856298</v>
       </c>
       <c r="I12" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98821910639855</v>
       </c>
       <c r="J12" t="n">
-        <v>40.19894069198317</v>
+        <v>39.35881349179591</v>
       </c>
       <c r="K12" t="n">
-        <v>17.39261862637501</v>
+        <v>15.95670742776333</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7752299692418</v>
       </c>
       <c r="R12" t="n">
-        <v>66.92938550216252</v>
+        <v>66.37728296997503</v>
       </c>
       <c r="S12" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1106539432188</v>
       </c>
       <c r="T12" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3758182264921</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9325093507683</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -23428,49 +23430,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1891859453656</v>
       </c>
       <c r="H13" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5245272278727</v>
       </c>
       <c r="I13" t="n">
-        <v>120.4900453057766</v>
+        <v>120.2658529935248</v>
       </c>
       <c r="J13" t="n">
-        <v>56.04354441809058</v>
+        <v>55.51647561144526</v>
       </c>
       <c r="K13" t="n">
-        <v>40.30525941636866</v>
+        <v>39.43912345791073</v>
       </c>
       <c r="L13" t="n">
-        <v>31.94173573434517</v>
+        <v>30.8333799076925</v>
       </c>
       <c r="M13" t="n">
-        <v>31.538805043564</v>
+        <v>30.37019922731282</v>
       </c>
       <c r="N13" t="n">
-        <v>25.62990109690304</v>
+        <v>24.48908211499988</v>
       </c>
       <c r="O13" t="n">
-        <v>37.0102385447647</v>
+        <v>35.95650756807426</v>
       </c>
       <c r="P13" t="n">
-        <v>44.18408838467263</v>
+        <v>43.28243949646259</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.08779846355691</v>
+        <v>66.46354350946021</v>
       </c>
       <c r="R13" t="n">
-        <v>105.8063526647429</v>
+        <v>105.4711485606324</v>
       </c>
       <c r="S13" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1249988263355</v>
       </c>
       <c r="T13" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7282805352103</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635496178172</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23507,49 +23509,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>408.195414220098</v>
+        <v>408.1787945667559</v>
       </c>
       <c r="H14" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1132605975983</v>
       </c>
       <c r="I14" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0941627158228</v>
       </c>
       <c r="J14" t="n">
-        <v>46.74967917541601</v>
+        <v>45.33910687257023</v>
       </c>
       <c r="K14" t="n">
-        <v>36.75248193446046</v>
+        <v>34.63839970564274</v>
       </c>
       <c r="L14" t="n">
-        <v>21.36627421377045</v>
+        <v>18.74356826898381</v>
       </c>
       <c r="M14" t="n">
-        <v>2.981031914565961</v>
+        <v>0.06276620965638813</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>8.75547455640654</v>
+        <v>5.955249939359391</v>
       </c>
       <c r="P14" t="n">
-        <v>30.12476724996209</v>
+        <v>27.73484032479853</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.25101662582001</v>
+        <v>52.45628103597113</v>
       </c>
       <c r="R14" t="n">
-        <v>87.63419656125427</v>
+        <v>86.59021226200232</v>
       </c>
       <c r="S14" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4258723809793</v>
       </c>
       <c r="T14" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5345070009231</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1270155985377</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23586,19 +23588,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4031811807343</v>
       </c>
       <c r="H15" t="n">
-        <v>83.09595063128953</v>
+        <v>83.01006974856298</v>
       </c>
       <c r="I15" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98821910639855</v>
       </c>
       <c r="J15" t="n">
-        <v>40.19894069198317</v>
+        <v>39.35881349179591</v>
       </c>
       <c r="K15" t="n">
-        <v>17.39261862637501</v>
+        <v>15.95670742776333</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7752299692418</v>
       </c>
       <c r="R15" t="n">
-        <v>66.92938550216252</v>
+        <v>66.37728296997503</v>
       </c>
       <c r="S15" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1106539432188</v>
       </c>
       <c r="T15" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3758182264921</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9325093507683</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -23665,49 +23667,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1891859453656</v>
       </c>
       <c r="H16" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5245272278727</v>
       </c>
       <c r="I16" t="n">
-        <v>120.4900453057766</v>
+        <v>120.2658529935248</v>
       </c>
       <c r="J16" t="n">
-        <v>56.04354441809058</v>
+        <v>55.51647561144526</v>
       </c>
       <c r="K16" t="n">
-        <v>40.30525941636866</v>
+        <v>39.43912345791073</v>
       </c>
       <c r="L16" t="n">
-        <v>31.94173573434517</v>
+        <v>30.8333799076925</v>
       </c>
       <c r="M16" t="n">
-        <v>31.538805043564</v>
+        <v>30.37019922731282</v>
       </c>
       <c r="N16" t="n">
-        <v>25.62990109690304</v>
+        <v>24.48908211499988</v>
       </c>
       <c r="O16" t="n">
-        <v>37.0102385447647</v>
+        <v>35.95650756807426</v>
       </c>
       <c r="P16" t="n">
-        <v>44.18408838467263</v>
+        <v>43.28243949646259</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.08779846355691</v>
+        <v>66.46354350946021</v>
       </c>
       <c r="R16" t="n">
-        <v>105.8063526647429</v>
+        <v>105.4711485606324</v>
       </c>
       <c r="S16" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1249988263355</v>
       </c>
       <c r="T16" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7282805352103</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635496178172</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23744,49 +23746,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>408.195414220098</v>
+        <v>408.1787945667559</v>
       </c>
       <c r="H17" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1132605975983</v>
       </c>
       <c r="I17" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0941627158228</v>
       </c>
       <c r="J17" t="n">
-        <v>46.74967917541601</v>
+        <v>45.33910687257023</v>
       </c>
       <c r="K17" t="n">
-        <v>36.75248193446046</v>
+        <v>34.63839970564274</v>
       </c>
       <c r="L17" t="n">
-        <v>21.36627421377045</v>
+        <v>18.74356826898381</v>
       </c>
       <c r="M17" t="n">
-        <v>2.981031914565961</v>
+        <v>0.06276620965638813</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>8.75547455640654</v>
+        <v>5.955249939359391</v>
       </c>
       <c r="P17" t="n">
-        <v>30.12476724996209</v>
+        <v>27.73484032479853</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.25101662582001</v>
+        <v>52.45628103597113</v>
       </c>
       <c r="R17" t="n">
-        <v>87.63419656125427</v>
+        <v>86.59021226200232</v>
       </c>
       <c r="S17" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4258723809793</v>
       </c>
       <c r="T17" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5345070009231</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1270155985377</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -23823,19 +23825,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4031811807343</v>
       </c>
       <c r="H18" t="n">
-        <v>83.09595063128953</v>
+        <v>83.01006974856298</v>
       </c>
       <c r="I18" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98821910639855</v>
       </c>
       <c r="J18" t="n">
-        <v>40.19894069198317</v>
+        <v>39.35881349179591</v>
       </c>
       <c r="K18" t="n">
-        <v>17.39261862637501</v>
+        <v>15.95670742776333</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7752299692418</v>
       </c>
       <c r="R18" t="n">
-        <v>66.92938550216252</v>
+        <v>66.37728296997503</v>
       </c>
       <c r="S18" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1106539432188</v>
       </c>
       <c r="T18" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3758182264921</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9325093507683</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -23902,49 +23904,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1891859453656</v>
       </c>
       <c r="H19" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5245272278727</v>
       </c>
       <c r="I19" t="n">
-        <v>120.4900453057766</v>
+        <v>120.2658529935248</v>
       </c>
       <c r="J19" t="n">
-        <v>56.04354441809058</v>
+        <v>55.51647561144526</v>
       </c>
       <c r="K19" t="n">
-        <v>40.30525941636866</v>
+        <v>39.43912345791073</v>
       </c>
       <c r="L19" t="n">
-        <v>31.94173573434517</v>
+        <v>30.8333799076925</v>
       </c>
       <c r="M19" t="n">
-        <v>31.538805043564</v>
+        <v>30.37019922731282</v>
       </c>
       <c r="N19" t="n">
-        <v>25.62990109690304</v>
+        <v>24.48908211499988</v>
       </c>
       <c r="O19" t="n">
-        <v>37.0102385447647</v>
+        <v>35.95650756807426</v>
       </c>
       <c r="P19" t="n">
-        <v>44.18408838467263</v>
+        <v>43.28243949646259</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.08779846355691</v>
+        <v>66.46354350946021</v>
       </c>
       <c r="R19" t="n">
-        <v>105.8063526647429</v>
+        <v>105.4711485606324</v>
       </c>
       <c r="S19" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1249988263355</v>
       </c>
       <c r="T19" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7282805352103</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635496178172</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -23981,49 +23983,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>408.195414220098</v>
+        <v>408.1787945667559</v>
       </c>
       <c r="H20" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1132605975983</v>
       </c>
       <c r="I20" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0941627158228</v>
       </c>
       <c r="J20" t="n">
-        <v>46.74967917541601</v>
+        <v>45.33910687257023</v>
       </c>
       <c r="K20" t="n">
-        <v>36.75248193446046</v>
+        <v>34.63839970564274</v>
       </c>
       <c r="L20" t="n">
-        <v>21.36627421377045</v>
+        <v>18.74356826898381</v>
       </c>
       <c r="M20" t="n">
-        <v>2.981031914565961</v>
+        <v>0.06276620965638813</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>8.75547455640654</v>
+        <v>5.955249939359391</v>
       </c>
       <c r="P20" t="n">
-        <v>30.12476724996209</v>
+        <v>27.73484032479853</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.25101662582001</v>
+        <v>52.45628103597113</v>
       </c>
       <c r="R20" t="n">
-        <v>87.63419656125427</v>
+        <v>86.59021226200232</v>
       </c>
       <c r="S20" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4258723809793</v>
       </c>
       <c r="T20" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5345070009231</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1270155985377</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24060,19 +24062,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4031811807343</v>
       </c>
       <c r="H21" t="n">
-        <v>83.09595063128953</v>
+        <v>83.01006974856298</v>
       </c>
       <c r="I21" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98821910639855</v>
       </c>
       <c r="J21" t="n">
-        <v>40.19894069198317</v>
+        <v>39.35881349179591</v>
       </c>
       <c r="K21" t="n">
-        <v>17.39261862637501</v>
+        <v>15.95670742776333</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7752299692418</v>
       </c>
       <c r="R21" t="n">
-        <v>66.92938550216252</v>
+        <v>66.37728296997503</v>
       </c>
       <c r="S21" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1106539432188</v>
       </c>
       <c r="T21" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3758182264921</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9325093507683</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -24139,49 +24141,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1891859453656</v>
       </c>
       <c r="H22" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5245272278727</v>
       </c>
       <c r="I22" t="n">
-        <v>120.4900453057766</v>
+        <v>120.2658529935248</v>
       </c>
       <c r="J22" t="n">
-        <v>56.04354441809058</v>
+        <v>55.51647561144526</v>
       </c>
       <c r="K22" t="n">
-        <v>40.30525941636866</v>
+        <v>39.43912345791073</v>
       </c>
       <c r="L22" t="n">
-        <v>31.94173573434517</v>
+        <v>30.8333799076925</v>
       </c>
       <c r="M22" t="n">
-        <v>31.538805043564</v>
+        <v>30.37019922731282</v>
       </c>
       <c r="N22" t="n">
-        <v>25.62990109690304</v>
+        <v>24.48908211499988</v>
       </c>
       <c r="O22" t="n">
-        <v>37.0102385447647</v>
+        <v>35.95650756807426</v>
       </c>
       <c r="P22" t="n">
-        <v>44.18408838467263</v>
+        <v>43.28243949646259</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.08779846355691</v>
+        <v>66.46354350946021</v>
       </c>
       <c r="R22" t="n">
-        <v>105.8063526647429</v>
+        <v>105.4711485606324</v>
       </c>
       <c r="S22" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1249988263355</v>
       </c>
       <c r="T22" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7282805352103</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635496178172</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24218,49 +24220,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>408.195414220098</v>
+        <v>408.1787945667559</v>
       </c>
       <c r="H23" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1132605975983</v>
       </c>
       <c r="I23" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0941627158228</v>
       </c>
       <c r="J23" t="n">
-        <v>46.74967917541601</v>
+        <v>45.33910687257023</v>
       </c>
       <c r="K23" t="n">
-        <v>36.75248193446046</v>
+        <v>34.63839970564274</v>
       </c>
       <c r="L23" t="n">
-        <v>21.36627421377045</v>
+        <v>18.74356826898381</v>
       </c>
       <c r="M23" t="n">
-        <v>2.981031914565961</v>
+        <v>0.06276620965638813</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>8.75547455640654</v>
+        <v>5.955249939359391</v>
       </c>
       <c r="P23" t="n">
-        <v>30.12476724996209</v>
+        <v>27.73484032479853</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.25101662582001</v>
+        <v>52.45628103597113</v>
       </c>
       <c r="R23" t="n">
-        <v>87.63419656125427</v>
+        <v>86.59021226200232</v>
       </c>
       <c r="S23" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4258723809793</v>
       </c>
       <c r="T23" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5345070009231</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1270155985377</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24297,19 +24299,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4031811807343</v>
       </c>
       <c r="H24" t="n">
-        <v>83.09595063128953</v>
+        <v>83.01006974856298</v>
       </c>
       <c r="I24" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98821910639855</v>
       </c>
       <c r="J24" t="n">
-        <v>40.19894069198317</v>
+        <v>39.35881349179591</v>
       </c>
       <c r="K24" t="n">
-        <v>17.39261862637501</v>
+        <v>15.95670742776333</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7752299692418</v>
       </c>
       <c r="R24" t="n">
-        <v>66.92938550216252</v>
+        <v>66.37728296997503</v>
       </c>
       <c r="S24" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1106539432188</v>
       </c>
       <c r="T24" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3758182264921</v>
       </c>
       <c r="U24" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9325093507683</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -24376,49 +24378,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1891859453656</v>
       </c>
       <c r="H25" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5245272278727</v>
       </c>
       <c r="I25" t="n">
-        <v>120.4900453057766</v>
+        <v>120.2658529935248</v>
       </c>
       <c r="J25" t="n">
-        <v>56.04354441809058</v>
+        <v>55.51647561144526</v>
       </c>
       <c r="K25" t="n">
-        <v>40.30525941636866</v>
+        <v>39.43912345791073</v>
       </c>
       <c r="L25" t="n">
-        <v>31.94173573434517</v>
+        <v>30.8333799076925</v>
       </c>
       <c r="M25" t="n">
-        <v>31.538805043564</v>
+        <v>30.37019922731282</v>
       </c>
       <c r="N25" t="n">
-        <v>25.62990109690304</v>
+        <v>24.48908211499988</v>
       </c>
       <c r="O25" t="n">
-        <v>37.0102385447647</v>
+        <v>35.95650756807426</v>
       </c>
       <c r="P25" t="n">
-        <v>44.18408838467263</v>
+        <v>43.28243949646259</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.08779846355691</v>
+        <v>66.46354350946021</v>
       </c>
       <c r="R25" t="n">
-        <v>105.8063526647429</v>
+        <v>105.4711485606324</v>
       </c>
       <c r="S25" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1249988263355</v>
       </c>
       <c r="T25" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7282805352103</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635496178172</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -24455,49 +24457,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>408.195414220098</v>
+        <v>408.1787945667559</v>
       </c>
       <c r="H26" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1132605975983</v>
       </c>
       <c r="I26" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0941627158228</v>
       </c>
       <c r="J26" t="n">
-        <v>46.74967917541601</v>
+        <v>45.33910687257023</v>
       </c>
       <c r="K26" t="n">
-        <v>36.75248193446048</v>
+        <v>34.63839970564274</v>
       </c>
       <c r="L26" t="n">
-        <v>21.36627421377045</v>
+        <v>18.74356826898381</v>
       </c>
       <c r="M26" t="n">
-        <v>2.981031914565961</v>
+        <v>0.06276620965638813</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>8.75547455640654</v>
+        <v>5.955249939359391</v>
       </c>
       <c r="P26" t="n">
-        <v>30.1247672499621</v>
+        <v>27.73484032479853</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.25101662582001</v>
+        <v>52.45628103597113</v>
       </c>
       <c r="R26" t="n">
-        <v>87.63419656125427</v>
+        <v>86.59021226200232</v>
       </c>
       <c r="S26" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4258723809793</v>
       </c>
       <c r="T26" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5345070009231</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1270155985377</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -24534,19 +24536,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4031811807343</v>
       </c>
       <c r="H27" t="n">
-        <v>83.09595063128953</v>
+        <v>83.01006974856298</v>
       </c>
       <c r="I27" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98821910639855</v>
       </c>
       <c r="J27" t="n">
-        <v>40.19894069198317</v>
+        <v>39.35881349179591</v>
       </c>
       <c r="K27" t="n">
-        <v>17.39261862637501</v>
+        <v>15.95670742776333</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.91032407045576</v>
+        <v>32.7752299692418</v>
       </c>
       <c r="R27" t="n">
-        <v>66.92938550216252</v>
+        <v>66.37728296997503</v>
       </c>
       <c r="S27" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1106539432188</v>
       </c>
       <c r="T27" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3758182264921</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9325093507683</v>
       </c>
       <c r="V27" t="n">
         <v>220.3146016126436</v>
@@ -24613,49 +24615,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1891859453656</v>
       </c>
       <c r="H28" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5245272278727</v>
       </c>
       <c r="I28" t="n">
-        <v>120.4900453057766</v>
+        <v>120.2658529935248</v>
       </c>
       <c r="J28" t="n">
-        <v>56.04354441809058</v>
+        <v>55.51647561144526</v>
       </c>
       <c r="K28" t="n">
-        <v>40.30525941636866</v>
+        <v>39.43912345791073</v>
       </c>
       <c r="L28" t="n">
-        <v>31.94173573434517</v>
+        <v>30.8333799076925</v>
       </c>
       <c r="M28" t="n">
-        <v>31.538805043564</v>
+        <v>30.37019922731282</v>
       </c>
       <c r="N28" t="n">
-        <v>25.62990109690304</v>
+        <v>24.48908211499988</v>
       </c>
       <c r="O28" t="n">
-        <v>37.0102385447647</v>
+        <v>35.95650756807426</v>
       </c>
       <c r="P28" t="n">
-        <v>44.18408838467262</v>
+        <v>43.28243949646259</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.08779846355691</v>
+        <v>66.46354350946021</v>
       </c>
       <c r="R28" t="n">
-        <v>105.8063526647429</v>
+        <v>105.4711485606324</v>
       </c>
       <c r="S28" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1249988263355</v>
       </c>
       <c r="T28" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7282805352103</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635496178172</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
@@ -24692,49 +24694,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>408.195414220098</v>
+        <v>408.1787945667559</v>
       </c>
       <c r="H29" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1132605975983</v>
       </c>
       <c r="I29" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0941627158228</v>
       </c>
       <c r="J29" t="n">
-        <v>46.74967917541601</v>
+        <v>45.33910687257023</v>
       </c>
       <c r="K29" t="n">
-        <v>36.75248193446046</v>
+        <v>34.63839970564274</v>
       </c>
       <c r="L29" t="n">
-        <v>21.36627421377045</v>
+        <v>18.74356826898381</v>
       </c>
       <c r="M29" t="n">
-        <v>2.981031914565961</v>
+        <v>0.06276620965638813</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>8.75547455640654</v>
+        <v>5.955249939359391</v>
       </c>
       <c r="P29" t="n">
-        <v>30.12476724996209</v>
+        <v>27.73484032479854</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.25101662582001</v>
+        <v>52.45628103597114</v>
       </c>
       <c r="R29" t="n">
-        <v>87.63419656125427</v>
+        <v>86.59021226200232</v>
       </c>
       <c r="S29" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4258723809793</v>
       </c>
       <c r="T29" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5345070009231</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1270155985377</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24771,19 +24773,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4031811807343</v>
       </c>
       <c r="H30" t="n">
-        <v>83.09595063128953</v>
+        <v>83.01006974856298</v>
       </c>
       <c r="I30" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98821910639855</v>
       </c>
       <c r="J30" t="n">
-        <v>40.19894069198317</v>
+        <v>39.35881349179591</v>
       </c>
       <c r="K30" t="n">
-        <v>17.39261862637501</v>
+        <v>15.95670742776333</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7752299692418</v>
       </c>
       <c r="R30" t="n">
-        <v>66.92938550216252</v>
+        <v>66.37728296997503</v>
       </c>
       <c r="S30" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1106539432188</v>
       </c>
       <c r="T30" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3758182264921</v>
       </c>
       <c r="U30" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9325093507683</v>
       </c>
       <c r="V30" t="n">
         <v>220.3146016126436</v>
@@ -24850,49 +24852,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1891859453656</v>
       </c>
       <c r="H31" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5245272278727</v>
       </c>
       <c r="I31" t="n">
-        <v>120.4900453057766</v>
+        <v>120.2658529935248</v>
       </c>
       <c r="J31" t="n">
-        <v>56.04354441809058</v>
+        <v>55.51647561144526</v>
       </c>
       <c r="K31" t="n">
-        <v>40.30525941636866</v>
+        <v>39.43912345791073</v>
       </c>
       <c r="L31" t="n">
-        <v>31.94173573434517</v>
+        <v>30.8333799076925</v>
       </c>
       <c r="M31" t="n">
-        <v>31.538805043564</v>
+        <v>30.37019922731282</v>
       </c>
       <c r="N31" t="n">
-        <v>25.62990109690304</v>
+        <v>24.48908211499989</v>
       </c>
       <c r="O31" t="n">
-        <v>37.0102385447647</v>
+        <v>35.95650756807426</v>
       </c>
       <c r="P31" t="n">
-        <v>44.18408838467263</v>
+        <v>43.28243949646259</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.08779846355691</v>
+        <v>66.46354350946021</v>
       </c>
       <c r="R31" t="n">
-        <v>105.8063526647429</v>
+        <v>105.4711485606324</v>
       </c>
       <c r="S31" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1249988263355</v>
       </c>
       <c r="T31" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7282805352103</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635496178172</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -24929,49 +24931,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>408.195414220098</v>
+        <v>408.1787945667559</v>
       </c>
       <c r="H32" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1132605975983</v>
       </c>
       <c r="I32" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0941627158228</v>
       </c>
       <c r="J32" t="n">
-        <v>46.74967917541601</v>
+        <v>45.33910687257023</v>
       </c>
       <c r="K32" t="n">
-        <v>36.75248193446046</v>
+        <v>34.63839970564274</v>
       </c>
       <c r="L32" t="n">
-        <v>21.36627421377045</v>
+        <v>18.74356826898381</v>
       </c>
       <c r="M32" t="n">
-        <v>2.981031914565961</v>
+        <v>0.06276620965638813</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>8.75547455640654</v>
+        <v>5.955249939359391</v>
       </c>
       <c r="P32" t="n">
-        <v>30.12476724996209</v>
+        <v>27.73484032479853</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.25101662582001</v>
+        <v>52.45628103597113</v>
       </c>
       <c r="R32" t="n">
-        <v>87.63419656125427</v>
+        <v>86.59021226200232</v>
       </c>
       <c r="S32" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4258723809793</v>
       </c>
       <c r="T32" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5345070009231</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1270155985377</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -25008,19 +25010,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4031811807343</v>
       </c>
       <c r="H33" t="n">
-        <v>83.09595063128953</v>
+        <v>83.01006974856298</v>
       </c>
       <c r="I33" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98821910639855</v>
       </c>
       <c r="J33" t="n">
-        <v>40.19894069198317</v>
+        <v>39.35881349179591</v>
       </c>
       <c r="K33" t="n">
-        <v>17.39261862637501</v>
+        <v>15.95670742776333</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7752299692418</v>
       </c>
       <c r="R33" t="n">
-        <v>66.92938550216252</v>
+        <v>66.37728296997503</v>
       </c>
       <c r="S33" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1106539432188</v>
       </c>
       <c r="T33" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3758182264921</v>
       </c>
       <c r="U33" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9325093507683</v>
       </c>
       <c r="V33" t="n">
         <v>220.3146016126436</v>
@@ -25087,49 +25089,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1891859453656</v>
       </c>
       <c r="H34" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5245272278727</v>
       </c>
       <c r="I34" t="n">
-        <v>120.4900453057766</v>
+        <v>120.2658529935248</v>
       </c>
       <c r="J34" t="n">
-        <v>56.04354441809058</v>
+        <v>55.51647561144526</v>
       </c>
       <c r="K34" t="n">
-        <v>40.30525941636866</v>
+        <v>39.43912345791073</v>
       </c>
       <c r="L34" t="n">
-        <v>31.94173573434517</v>
+        <v>30.8333799076925</v>
       </c>
       <c r="M34" t="n">
-        <v>31.538805043564</v>
+        <v>30.37019922731282</v>
       </c>
       <c r="N34" t="n">
-        <v>25.62990109690304</v>
+        <v>24.48908211499988</v>
       </c>
       <c r="O34" t="n">
-        <v>37.0102385447647</v>
+        <v>35.95650756807426</v>
       </c>
       <c r="P34" t="n">
-        <v>44.18408838467263</v>
+        <v>43.28243949646259</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.08779846355691</v>
+        <v>66.46354350946021</v>
       </c>
       <c r="R34" t="n">
-        <v>105.8063526647429</v>
+        <v>105.4711485606324</v>
       </c>
       <c r="S34" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1249988263355</v>
       </c>
       <c r="T34" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7282805352103</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635496178172</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -25166,49 +25168,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>408.195414220098</v>
+        <v>408.1787945667559</v>
       </c>
       <c r="H35" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1132605975983</v>
       </c>
       <c r="I35" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0941627158228</v>
       </c>
       <c r="J35" t="n">
-        <v>46.74967917541601</v>
+        <v>45.33910687257023</v>
       </c>
       <c r="K35" t="n">
-        <v>36.75248193446046</v>
+        <v>34.63839970564274</v>
       </c>
       <c r="L35" t="n">
-        <v>21.36627421377045</v>
+        <v>18.74356826898381</v>
       </c>
       <c r="M35" t="n">
-        <v>2.981031914565961</v>
+        <v>0.06276620965638813</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>8.75547455640654</v>
+        <v>5.955249939359391</v>
       </c>
       <c r="P35" t="n">
-        <v>30.12476724996209</v>
+        <v>27.73484032479853</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.25101662582001</v>
+        <v>52.45628103597113</v>
       </c>
       <c r="R35" t="n">
-        <v>87.63419656125427</v>
+        <v>86.59021226200232</v>
       </c>
       <c r="S35" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4258723809793</v>
       </c>
       <c r="T35" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5345070009231</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1270155985377</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -25245,19 +25247,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4031811807343</v>
       </c>
       <c r="H36" t="n">
-        <v>83.09595063128953</v>
+        <v>83.01006974856298</v>
       </c>
       <c r="I36" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98821910639855</v>
       </c>
       <c r="J36" t="n">
-        <v>40.19894069198317</v>
+        <v>39.35881349179591</v>
       </c>
       <c r="K36" t="n">
-        <v>17.39261862637501</v>
+        <v>15.95670742776333</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7752299692418</v>
       </c>
       <c r="R36" t="n">
-        <v>66.92938550216252</v>
+        <v>66.37728296997503</v>
       </c>
       <c r="S36" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1106539432188</v>
       </c>
       <c r="T36" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3758182264921</v>
       </c>
       <c r="U36" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9325093507683</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
@@ -25324,49 +25326,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1891859453656</v>
       </c>
       <c r="H37" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5245272278727</v>
       </c>
       <c r="I37" t="n">
-        <v>120.4900453057766</v>
+        <v>120.2658529935248</v>
       </c>
       <c r="J37" t="n">
-        <v>56.04354441809058</v>
+        <v>55.51647561144526</v>
       </c>
       <c r="K37" t="n">
-        <v>40.30525941636866</v>
+        <v>39.43912345791073</v>
       </c>
       <c r="L37" t="n">
-        <v>31.94173573434517</v>
+        <v>30.8333799076925</v>
       </c>
       <c r="M37" t="n">
-        <v>31.538805043564</v>
+        <v>30.37019922731282</v>
       </c>
       <c r="N37" t="n">
-        <v>25.62990109690304</v>
+        <v>24.48908211499988</v>
       </c>
       <c r="O37" t="n">
-        <v>37.0102385447647</v>
+        <v>35.95650756807426</v>
       </c>
       <c r="P37" t="n">
-        <v>44.18408838467263</v>
+        <v>43.28243949646259</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.08779846355691</v>
+        <v>66.46354350946021</v>
       </c>
       <c r="R37" t="n">
-        <v>105.8063526647429</v>
+        <v>105.4711485606324</v>
       </c>
       <c r="S37" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1249988263355</v>
       </c>
       <c r="T37" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7282805352103</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635496178172</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25403,49 +25405,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>408.195414220098</v>
+        <v>408.1787945667559</v>
       </c>
       <c r="H38" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1132605975983</v>
       </c>
       <c r="I38" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0941627158228</v>
       </c>
       <c r="J38" t="n">
-        <v>46.74967917541601</v>
+        <v>45.33910687257023</v>
       </c>
       <c r="K38" t="n">
-        <v>36.75248193446046</v>
+        <v>34.63839970564274</v>
       </c>
       <c r="L38" t="n">
-        <v>21.36627421377045</v>
+        <v>18.74356826898381</v>
       </c>
       <c r="M38" t="n">
-        <v>2.981031914565961</v>
+        <v>0.06276620965638813</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>8.75547455640654</v>
+        <v>5.955249939359391</v>
       </c>
       <c r="P38" t="n">
-        <v>30.12476724996209</v>
+        <v>27.73484032479853</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.25101662582001</v>
+        <v>52.45628103597113</v>
       </c>
       <c r="R38" t="n">
-        <v>87.63419656125427</v>
+        <v>86.59021226200232</v>
       </c>
       <c r="S38" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4258723809793</v>
       </c>
       <c r="T38" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5345070009231</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1270155985377</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25482,19 +25484,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4031811807343</v>
       </c>
       <c r="H39" t="n">
-        <v>83.09595063128953</v>
+        <v>83.01006974856298</v>
       </c>
       <c r="I39" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98821910639855</v>
       </c>
       <c r="J39" t="n">
-        <v>40.19894069198317</v>
+        <v>39.35881349179591</v>
       </c>
       <c r="K39" t="n">
-        <v>17.39261862637501</v>
+        <v>15.95670742776333</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7752299692418</v>
       </c>
       <c r="R39" t="n">
-        <v>66.92938550216252</v>
+        <v>66.37728296997503</v>
       </c>
       <c r="S39" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1106539432188</v>
       </c>
       <c r="T39" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3758182264921</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9325093507683</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
@@ -25561,49 +25563,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1891859453656</v>
       </c>
       <c r="H40" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5245272278727</v>
       </c>
       <c r="I40" t="n">
-        <v>120.4900453057766</v>
+        <v>120.2658529935248</v>
       </c>
       <c r="J40" t="n">
-        <v>56.04354441809058</v>
+        <v>55.51647561144526</v>
       </c>
       <c r="K40" t="n">
-        <v>40.30525941636866</v>
+        <v>39.43912345791073</v>
       </c>
       <c r="L40" t="n">
-        <v>31.94173573434517</v>
+        <v>30.8333799076925</v>
       </c>
       <c r="M40" t="n">
-        <v>31.538805043564</v>
+        <v>30.37019922731282</v>
       </c>
       <c r="N40" t="n">
-        <v>25.62990109690304</v>
+        <v>24.48908211499988</v>
       </c>
       <c r="O40" t="n">
-        <v>37.0102385447647</v>
+        <v>35.95650756807426</v>
       </c>
       <c r="P40" t="n">
-        <v>44.18408838467263</v>
+        <v>43.28243949646259</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.08779846355691</v>
+        <v>66.46354350946021</v>
       </c>
       <c r="R40" t="n">
-        <v>105.8063526647429</v>
+        <v>105.4711485606324</v>
       </c>
       <c r="S40" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1249988263355</v>
       </c>
       <c r="T40" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7282805352103</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635496178172</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25640,49 +25642,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>408.195414220098</v>
+        <v>408.1787945667559</v>
       </c>
       <c r="H41" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1132605975983</v>
       </c>
       <c r="I41" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0941627158228</v>
       </c>
       <c r="J41" t="n">
-        <v>46.74967917541601</v>
+        <v>45.33910687257023</v>
       </c>
       <c r="K41" t="n">
-        <v>36.75248193446046</v>
+        <v>34.63839970564274</v>
       </c>
       <c r="L41" t="n">
-        <v>21.36627421377045</v>
+        <v>18.74356826898381</v>
       </c>
       <c r="M41" t="n">
-        <v>2.981031914565961</v>
+        <v>0.06276620965638813</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>8.75547455640654</v>
+        <v>5.955249939359391</v>
       </c>
       <c r="P41" t="n">
-        <v>30.12476724996209</v>
+        <v>27.73484032479853</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.25101662582001</v>
+        <v>52.45628103597113</v>
       </c>
       <c r="R41" t="n">
-        <v>87.63419656125427</v>
+        <v>86.59021226200232</v>
       </c>
       <c r="S41" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4258723809793</v>
       </c>
       <c r="T41" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5345070009231</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1270155985377</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -25719,19 +25721,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4031811807343</v>
       </c>
       <c r="H42" t="n">
-        <v>83.09595063128953</v>
+        <v>83.01006974856298</v>
       </c>
       <c r="I42" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98821910639855</v>
       </c>
       <c r="J42" t="n">
-        <v>40.19894069198317</v>
+        <v>39.35881349179591</v>
       </c>
       <c r="K42" t="n">
-        <v>17.39261862637501</v>
+        <v>15.95670742776333</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7752299692418</v>
       </c>
       <c r="R42" t="n">
-        <v>66.92938550216252</v>
+        <v>66.37728296997503</v>
       </c>
       <c r="S42" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1106539432188</v>
       </c>
       <c r="T42" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3758182264921</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9325093507683</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
@@ -25798,49 +25800,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1891859453656</v>
       </c>
       <c r="H43" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5245272278727</v>
       </c>
       <c r="I43" t="n">
-        <v>120.4900453057766</v>
+        <v>120.2658529935248</v>
       </c>
       <c r="J43" t="n">
-        <v>56.04354441809058</v>
+        <v>55.51647561144526</v>
       </c>
       <c r="K43" t="n">
-        <v>40.30525941636866</v>
+        <v>39.43912345791073</v>
       </c>
       <c r="L43" t="n">
-        <v>31.94173573434517</v>
+        <v>30.8333799076925</v>
       </c>
       <c r="M43" t="n">
-        <v>31.538805043564</v>
+        <v>30.37019922731282</v>
       </c>
       <c r="N43" t="n">
-        <v>25.62990109690304</v>
+        <v>24.48908211499988</v>
       </c>
       <c r="O43" t="n">
-        <v>37.0102385447647</v>
+        <v>35.95650756807426</v>
       </c>
       <c r="P43" t="n">
-        <v>44.18408838467263</v>
+        <v>43.28243949646259</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.08779846355691</v>
+        <v>66.46354350946021</v>
       </c>
       <c r="R43" t="n">
-        <v>105.8063526647429</v>
+        <v>105.4711485606324</v>
       </c>
       <c r="S43" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1249988263355</v>
       </c>
       <c r="T43" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7282805352103</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635496178172</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -25877,49 +25879,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.195414220098</v>
+        <v>408.1784371103926</v>
       </c>
       <c r="H44" t="n">
-        <v>312.2834666223883</v>
+        <v>312.1095997976174</v>
       </c>
       <c r="I44" t="n">
-        <v>104.7348919012949</v>
+        <v>104.0803818793758</v>
       </c>
       <c r="J44" t="n">
-        <v>46.74967917541601</v>
+        <v>45.30876821055361</v>
       </c>
       <c r="K44" t="n">
-        <v>36.75248193446046</v>
+        <v>34.59292991576666</v>
       </c>
       <c r="L44" t="n">
-        <v>21.36627421377045</v>
+        <v>18.68715897392866</v>
       </c>
       <c r="M44" t="n">
-        <v>2.981031914565961</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>8.75547455640654</v>
+        <v>5.895022563523497</v>
       </c>
       <c r="P44" t="n">
-        <v>30.12476724996209</v>
+        <v>27.68343765293218</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.25101662582001</v>
+        <v>52.41767977011631</v>
       </c>
       <c r="R44" t="n">
-        <v>87.63419656125427</v>
+        <v>86.56775819371971</v>
       </c>
       <c r="S44" t="n">
-        <v>145.8045927315129</v>
+        <v>145.4177268441001</v>
       </c>
       <c r="T44" t="n">
-        <v>217.6072595334283</v>
+        <v>217.5329422356927</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1283451708051</v>
+        <v>253.1269870020286</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25956,19 +25958,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.4120734792183</v>
+        <v>118.4029899247188</v>
       </c>
       <c r="H45" t="n">
-        <v>83.09595063128953</v>
+        <v>83.00822261809724</v>
       </c>
       <c r="I45" t="n">
-        <v>49.29437938314847</v>
+        <v>48.98163419533764</v>
       </c>
       <c r="J45" t="n">
-        <v>40.19894069198317</v>
+        <v>39.34074399253945</v>
       </c>
       <c r="K45" t="n">
-        <v>17.39261862637501</v>
+        <v>15.92582377546655</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.698038997342408</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.91032407045577</v>
+        <v>32.7508163066282</v>
       </c>
       <c r="R45" t="n">
-        <v>66.92938550216252</v>
+        <v>66.36540832016887</v>
       </c>
       <c r="S45" t="n">
-        <v>125.2758244874271</v>
+        <v>125.1071014466145</v>
       </c>
       <c r="T45" t="n">
-        <v>173.4116604295919</v>
+        <v>173.3750473305348</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9330943704054</v>
+        <v>207.9324967681357</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26035,49 +26037,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.1966409497028</v>
+        <v>166.1890256027469</v>
       </c>
       <c r="H46" t="n">
-        <v>150.5908089937078</v>
+        <v>150.5231016362263</v>
       </c>
       <c r="I46" t="n">
-        <v>120.4900453057766</v>
+        <v>120.261031053682</v>
       </c>
       <c r="J46" t="n">
-        <v>56.04354441809058</v>
+        <v>55.50513938830231</v>
       </c>
       <c r="K46" t="n">
-        <v>40.30525941636866</v>
+        <v>39.42049456093673</v>
       </c>
       <c r="L46" t="n">
-        <v>31.94173573434517</v>
+        <v>30.80954133327054</v>
       </c>
       <c r="M46" t="n">
-        <v>31.538805043564</v>
+        <v>30.34506479299962</v>
       </c>
       <c r="N46" t="n">
-        <v>25.62990109690304</v>
+        <v>24.46454532135644</v>
       </c>
       <c r="O46" t="n">
-        <v>37.0102385447647</v>
+        <v>35.9338438677494</v>
       </c>
       <c r="P46" t="n">
-        <v>44.18408838467263</v>
+        <v>43.26304678555946</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.08779846355691</v>
+        <v>66.45011700163332</v>
       </c>
       <c r="R46" t="n">
-        <v>105.8063526647429</v>
+        <v>105.463938973431</v>
       </c>
       <c r="S46" t="n">
-        <v>194.2549192201042</v>
+        <v>194.1222044917894</v>
       </c>
       <c r="T46" t="n">
-        <v>231.7601337355605</v>
+        <v>231.7275954349304</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5639562544173</v>
+        <v>282.5635408718562</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>139861.125959824</v>
+        <v>-4.365574568510055e-12</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>185906.3096485326</v>
+        <v>188793.3389520882</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>185906.3096485326</v>
+        <v>188793.3389520882</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>185906.3096485326</v>
+        <v>188793.3389520882</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>185906.3096485326</v>
+        <v>188793.3389520882</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>185906.3096485326</v>
+        <v>188793.3389520882</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>185906.3096485326</v>
+        <v>188793.3389520882</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>185906.3096485326</v>
+        <v>188793.3389520882</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>185906.3096485326</v>
+        <v>188793.3389520882</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>185906.3096485326</v>
+        <v>188793.3389520882</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>185906.3096485326</v>
+        <v>188793.3389520882</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>185906.3096485326</v>
+        <v>188793.3389520882</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>185906.3096485326</v>
+        <v>188853.1105595388</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>23310.18765997067</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>30984.38494142209</v>
+        <v>31465.55649201468</v>
       </c>
       <c r="F2" t="n">
-        <v>30984.38494142209</v>
+        <v>31465.55649201468</v>
       </c>
       <c r="G2" t="n">
-        <v>30984.38494142209</v>
+        <v>31465.55649201468</v>
       </c>
       <c r="H2" t="n">
-        <v>30984.38494142209</v>
+        <v>31465.55649201468</v>
       </c>
       <c r="I2" t="n">
-        <v>30984.38494142209</v>
+        <v>31465.55649201468</v>
       </c>
       <c r="J2" t="n">
-        <v>30984.38494142209</v>
+        <v>31465.55649201468</v>
       </c>
       <c r="K2" t="n">
-        <v>30984.38494142209</v>
+        <v>31465.55649201468</v>
       </c>
       <c r="L2" t="n">
-        <v>30984.38494142209</v>
+        <v>31465.55649201469</v>
       </c>
       <c r="M2" t="n">
-        <v>30984.38494142209</v>
+        <v>31465.55649201468</v>
       </c>
       <c r="N2" t="n">
-        <v>30984.38494142209</v>
+        <v>31465.55649201468</v>
       </c>
       <c r="O2" t="n">
-        <v>30984.38494142209</v>
+        <v>31465.55649201468</v>
       </c>
       <c r="P2" t="n">
-        <v>30984.38494142209</v>
+        <v>31475.51842658978</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>130694.7925215629</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>44409.52063238913</v>
+        <v>170335.8416525512</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>59.1812011482029</v>
       </c>
     </row>
     <row r="4">
@@ -26473,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36954.43314024534</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>4531.866666117264</v>
+        <v>4621.990891278247</v>
       </c>
       <c r="F5" t="n">
-        <v>4531.866666117264</v>
+        <v>4621.990891278247</v>
       </c>
       <c r="G5" t="n">
-        <v>4531.866666117264</v>
+        <v>4621.990891278247</v>
       </c>
       <c r="H5" t="n">
-        <v>4531.866666117264</v>
+        <v>4621.990891278247</v>
       </c>
       <c r="I5" t="n">
-        <v>4531.866666117264</v>
+        <v>4621.990891278247</v>
       </c>
       <c r="J5" t="n">
-        <v>4531.866666117264</v>
+        <v>4621.990891278247</v>
       </c>
       <c r="K5" t="n">
-        <v>4531.866666117264</v>
+        <v>4621.990891278247</v>
       </c>
       <c r="L5" t="n">
-        <v>4531.866666117264</v>
+        <v>4621.990891278247</v>
       </c>
       <c r="M5" t="n">
-        <v>4531.866666117264</v>
+        <v>4621.990891278247</v>
       </c>
       <c r="N5" t="n">
-        <v>4531.866666117264</v>
+        <v>4621.990891278247</v>
       </c>
       <c r="O5" t="n">
-        <v>4531.866666117264</v>
+        <v>4621.990891278247</v>
       </c>
       <c r="P5" t="n">
-        <v>4531.866666117264</v>
+        <v>4623.929287772457</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26527,43 @@
         <v>-33627.6</v>
       </c>
       <c r="D6" t="n">
-        <v>-144339.0380018376</v>
+        <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-17957.0023570843</v>
+        <v>-143492.2760518148</v>
       </c>
       <c r="F6" t="n">
-        <v>26452.51827530482</v>
+        <v>26843.56560073644</v>
       </c>
       <c r="G6" t="n">
-        <v>26452.51827530482</v>
+        <v>26843.56560073644</v>
       </c>
       <c r="H6" t="n">
-        <v>26452.51827530482</v>
+        <v>26843.56560073644</v>
       </c>
       <c r="I6" t="n">
-        <v>26452.51827530482</v>
+        <v>26843.56560073644</v>
       </c>
       <c r="J6" t="n">
-        <v>26452.51827530482</v>
+        <v>26843.56560073643</v>
       </c>
       <c r="K6" t="n">
-        <v>26452.51827530482</v>
+        <v>26843.56560073643</v>
       </c>
       <c r="L6" t="n">
-        <v>26452.51827530482</v>
+        <v>26843.56560073644</v>
       </c>
       <c r="M6" t="n">
-        <v>26452.51827530482</v>
+        <v>26843.56560073643</v>
       </c>
       <c r="N6" t="n">
-        <v>26452.51827530482</v>
+        <v>26843.56560073644</v>
       </c>
       <c r="O6" t="n">
-        <v>26452.51827530482</v>
+        <v>26843.56560073643</v>
       </c>
       <c r="P6" t="n">
-        <v>26452.51827530482</v>
+        <v>26792.40793766912</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>152.6070247818962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.0179307925801</v>
       </c>
       <c r="F3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.0179307925801</v>
       </c>
       <c r="G3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.0179307925801</v>
       </c>
       <c r="H3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.0179307925801</v>
       </c>
       <c r="I3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.0179307925801</v>
       </c>
       <c r="J3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.0179307925801</v>
       </c>
       <c r="K3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.0179307925801</v>
       </c>
       <c r="L3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.0179307925801</v>
       </c>
       <c r="M3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.0179307925801</v>
       </c>
       <c r="N3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.0179307925801</v>
       </c>
       <c r="O3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.0179307925801</v>
       </c>
       <c r="P3" t="n">
-        <v>207.8837920237277</v>
+        <v>212.1068480629568</v>
       </c>
     </row>
     <row r="4">
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>152.6070247818962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>55.27676724183146</v>
+        <v>212.0179307925801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.08891727037664054</v>
       </c>
     </row>
     <row r="4">
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6134955770126478</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6.282961578080781</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>23.65178823278013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>52.06967022947726</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>78.03893800442265</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>96.8142032694235</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>107.7244552371222</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>109.4675495453094</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>103.3671029013898</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>88.22143084389009</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>66.25062049212461</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>38.53749153952077</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>13.98003046117572</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2.685576888372867</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04907964616101181</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3282490721723806</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.170194986506939</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>11.30155796733854</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>31.01233887572479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>53.00502671127429</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>71.27179963988466</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>83.17082850613345</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>78.09880446550495</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>62.68117589579433</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>41.90070612502178</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.38023625294834</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>6.097082546710663</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.323074111080779</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02159533369555136</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2751929955083374</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.446715905519584</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>8.275803901287096</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.45614478243946</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>31.97242256905956</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>40.91369316857593</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>43.13775292318419</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>42.11203357628952</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>38.89727903785121</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>33.2833419294811</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.04366074206633</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>12.3736777798567</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>4.795863385358934</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.175824617171987</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01501052702772751</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8523333901209244</v>
       </c>
       <c r="H11" t="n">
-        <v>8.558753306785931</v>
+        <v>8.728959331575918</v>
       </c>
       <c r="I11" t="n">
-        <v>32.21885383716488</v>
+        <v>32.85958302263697</v>
       </c>
       <c r="J11" t="n">
-        <v>70.93015876693009</v>
+        <v>72.34073106977587</v>
       </c>
       <c r="K11" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4200034735946</v>
       </c>
       <c r="L11" t="n">
-        <v>131.8818955167212</v>
+        <v>134.5046014615079</v>
       </c>
       <c r="M11" t="n">
-        <v>146.7440196831613</v>
+        <v>149.6622853880709</v>
       </c>
       <c r="N11" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O11" t="n">
-        <v>140.8083628676899</v>
+        <v>143.608587484737</v>
       </c>
       <c r="P11" t="n">
-        <v>120.1766799909631</v>
+        <v>122.5666069161267</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.24768179257215</v>
+        <v>92.04241738242104</v>
       </c>
       <c r="R11" t="n">
-        <v>52.49640301793161</v>
+        <v>53.54038731718357</v>
       </c>
       <c r="S11" t="n">
-        <v>19.04382677684702</v>
+        <v>19.42254712738058</v>
       </c>
       <c r="T11" t="n">
-        <v>3.658336882749217</v>
+        <v>3.731089415254349</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06818667120967394</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4560385681198893</v>
       </c>
       <c r="H12" t="n">
-        <v>4.318491604115551</v>
+        <v>4.40437248684209</v>
       </c>
       <c r="I12" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70132789360145</v>
       </c>
       <c r="J12" t="n">
-        <v>42.24551664135018</v>
+        <v>43.08564384153744</v>
       </c>
       <c r="K12" t="n">
-        <v>72.20431670695834</v>
+        <v>73.64022790557001</v>
       </c>
       <c r="L12" t="n">
         <v>90.06034685691823</v>
@@ -31856,22 +31858,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.07782908545822</v>
+        <v>58.21292318667219</v>
       </c>
       <c r="R12" t="n">
-        <v>27.76229207441406</v>
+        <v>28.31439460660156</v>
       </c>
       <c r="S12" t="n">
-        <v>8.305545841702701</v>
+        <v>8.470716385911096</v>
       </c>
       <c r="T12" t="n">
-        <v>1.802313253488733</v>
+        <v>1.8381554565885</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03000253737630852</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3823274161833411</v>
       </c>
       <c r="H13" t="n">
-        <v>3.33295653441321</v>
+        <v>3.399238300248254</v>
       </c>
       <c r="I13" t="n">
-        <v>11.27343580351625</v>
+        <v>11.49762811576812</v>
       </c>
       <c r="J13" t="n">
-        <v>26.50347951751689</v>
+        <v>27.03054832416221</v>
       </c>
       <c r="K13" t="n">
-        <v>43.55335839447933</v>
+        <v>44.41949435293726</v>
       </c>
       <c r="L13" t="n">
-        <v>55.73330384845972</v>
+        <v>56.84165967511238</v>
       </c>
       <c r="M13" t="n">
-        <v>58.76295452237927</v>
+        <v>59.93156033863045</v>
       </c>
       <c r="N13" t="n">
-        <v>57.36570280549853</v>
+        <v>58.50652178740169</v>
       </c>
       <c r="O13" t="n">
-        <v>52.9865114489331</v>
+        <v>54.04024242562355</v>
       </c>
       <c r="P13" t="n">
-        <v>45.33911424727331</v>
+        <v>46.24076313548335</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.39045259558288</v>
+        <v>32.01470754967959</v>
       </c>
       <c r="R13" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19083091311641</v>
       </c>
       <c r="S13" t="n">
-        <v>6.533003759171899</v>
+        <v>6.662924152940588</v>
       </c>
       <c r="T13" t="n">
-        <v>1.601727577887737</v>
+        <v>1.633580778237912</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02085422270090954</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8523333901209244</v>
       </c>
       <c r="H14" t="n">
-        <v>8.558753306785931</v>
+        <v>8.728959331575918</v>
       </c>
       <c r="I14" t="n">
-        <v>32.21885383716488</v>
+        <v>32.85958302263697</v>
       </c>
       <c r="J14" t="n">
-        <v>70.93015876693009</v>
+        <v>72.34073106977587</v>
       </c>
       <c r="K14" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4200034735946</v>
       </c>
       <c r="L14" t="n">
-        <v>131.8818955167212</v>
+        <v>134.5046014615079</v>
       </c>
       <c r="M14" t="n">
-        <v>146.7440196831613</v>
+        <v>149.6622853880709</v>
       </c>
       <c r="N14" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O14" t="n">
-        <v>140.8083628676899</v>
+        <v>143.608587484737</v>
       </c>
       <c r="P14" t="n">
-        <v>120.1766799909631</v>
+        <v>122.5666069161267</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.24768179257215</v>
+        <v>92.04241738242104</v>
       </c>
       <c r="R14" t="n">
-        <v>52.49640301793161</v>
+        <v>53.54038731718357</v>
       </c>
       <c r="S14" t="n">
-        <v>19.04382677684702</v>
+        <v>19.42254712738058</v>
       </c>
       <c r="T14" t="n">
-        <v>3.658336882749217</v>
+        <v>3.731089415254349</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06818667120967394</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4560385681198893</v>
       </c>
       <c r="H15" t="n">
-        <v>4.318491604115551</v>
+        <v>4.40437248684209</v>
       </c>
       <c r="I15" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70132789360145</v>
       </c>
       <c r="J15" t="n">
-        <v>42.24551664135018</v>
+        <v>43.08564384153744</v>
       </c>
       <c r="K15" t="n">
-        <v>72.20431670695834</v>
+        <v>73.64022790557001</v>
       </c>
       <c r="L15" t="n">
         <v>90.06034685691823</v>
@@ -32093,22 +32095,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.07782908545822</v>
+        <v>58.21292318667219</v>
       </c>
       <c r="R15" t="n">
-        <v>27.76229207441406</v>
+        <v>28.31439460660156</v>
       </c>
       <c r="S15" t="n">
-        <v>8.305545841702701</v>
+        <v>8.470716385911096</v>
       </c>
       <c r="T15" t="n">
-        <v>1.802313253488733</v>
+        <v>1.8381554565885</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03000253737630852</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3823274161833411</v>
       </c>
       <c r="H16" t="n">
-        <v>3.33295653441321</v>
+        <v>3.399238300248254</v>
       </c>
       <c r="I16" t="n">
-        <v>11.27343580351625</v>
+        <v>11.49762811576812</v>
       </c>
       <c r="J16" t="n">
-        <v>26.50347951751689</v>
+        <v>27.03054832416221</v>
       </c>
       <c r="K16" t="n">
-        <v>43.55335839447933</v>
+        <v>44.41949435293726</v>
       </c>
       <c r="L16" t="n">
-        <v>55.73330384845972</v>
+        <v>56.84165967511238</v>
       </c>
       <c r="M16" t="n">
-        <v>58.76295452237927</v>
+        <v>59.93156033863045</v>
       </c>
       <c r="N16" t="n">
-        <v>57.36570280549853</v>
+        <v>58.50652178740169</v>
       </c>
       <c r="O16" t="n">
-        <v>52.9865114489331</v>
+        <v>54.04024242562355</v>
       </c>
       <c r="P16" t="n">
-        <v>45.33911424727331</v>
+        <v>46.24076313548335</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.39045259558288</v>
+        <v>32.01470754967959</v>
       </c>
       <c r="R16" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19083091311641</v>
       </c>
       <c r="S16" t="n">
-        <v>6.533003759171899</v>
+        <v>6.662924152940588</v>
       </c>
       <c r="T16" t="n">
-        <v>1.601727577887737</v>
+        <v>1.633580778237912</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02085422270090954</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8523333901209244</v>
       </c>
       <c r="H17" t="n">
-        <v>8.558753306785931</v>
+        <v>8.728959331575918</v>
       </c>
       <c r="I17" t="n">
-        <v>32.21885383716488</v>
+        <v>32.85958302263697</v>
       </c>
       <c r="J17" t="n">
-        <v>70.93015876693009</v>
+        <v>72.34073106977587</v>
       </c>
       <c r="K17" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4200034735946</v>
       </c>
       <c r="L17" t="n">
-        <v>131.8818955167212</v>
+        <v>134.5046014615079</v>
       </c>
       <c r="M17" t="n">
-        <v>146.7440196831613</v>
+        <v>149.6622853880709</v>
       </c>
       <c r="N17" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O17" t="n">
-        <v>140.8083628676899</v>
+        <v>143.608587484737</v>
       </c>
       <c r="P17" t="n">
-        <v>120.1766799909631</v>
+        <v>122.5666069161267</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.24768179257215</v>
+        <v>92.04241738242104</v>
       </c>
       <c r="R17" t="n">
-        <v>52.49640301793161</v>
+        <v>53.54038731718357</v>
       </c>
       <c r="S17" t="n">
-        <v>19.04382677684702</v>
+        <v>19.42254712738058</v>
       </c>
       <c r="T17" t="n">
-        <v>3.658336882749217</v>
+        <v>3.731089415254349</v>
       </c>
       <c r="U17" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06818667120967394</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4560385681198893</v>
       </c>
       <c r="H18" t="n">
-        <v>4.318491604115551</v>
+        <v>4.40437248684209</v>
       </c>
       <c r="I18" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70132789360145</v>
       </c>
       <c r="J18" t="n">
-        <v>42.24551664135018</v>
+        <v>43.08564384153744</v>
       </c>
       <c r="K18" t="n">
-        <v>72.20431670695834</v>
+        <v>73.64022790557001</v>
       </c>
       <c r="L18" t="n">
         <v>90.06034685691823</v>
@@ -32330,22 +32332,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.07782908545822</v>
+        <v>58.21292318667219</v>
       </c>
       <c r="R18" t="n">
-        <v>27.76229207441406</v>
+        <v>28.31439460660156</v>
       </c>
       <c r="S18" t="n">
-        <v>8.305545841702701</v>
+        <v>8.470716385911096</v>
       </c>
       <c r="T18" t="n">
-        <v>1.802313253488733</v>
+        <v>1.8381554565885</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03000253737630852</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3823274161833411</v>
       </c>
       <c r="H19" t="n">
-        <v>3.33295653441321</v>
+        <v>3.399238300248254</v>
       </c>
       <c r="I19" t="n">
-        <v>11.27343580351625</v>
+        <v>11.49762811576812</v>
       </c>
       <c r="J19" t="n">
-        <v>26.50347951751689</v>
+        <v>27.03054832416221</v>
       </c>
       <c r="K19" t="n">
-        <v>43.55335839447933</v>
+        <v>44.41949435293726</v>
       </c>
       <c r="L19" t="n">
-        <v>55.73330384845972</v>
+        <v>56.84165967511238</v>
       </c>
       <c r="M19" t="n">
-        <v>58.76295452237927</v>
+        <v>59.93156033863045</v>
       </c>
       <c r="N19" t="n">
-        <v>57.36570280549853</v>
+        <v>58.50652178740169</v>
       </c>
       <c r="O19" t="n">
-        <v>52.9865114489331</v>
+        <v>54.04024242562355</v>
       </c>
       <c r="P19" t="n">
-        <v>45.33911424727331</v>
+        <v>46.24076313548335</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.39045259558288</v>
+        <v>32.01470754967959</v>
       </c>
       <c r="R19" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19083091311641</v>
       </c>
       <c r="S19" t="n">
-        <v>6.533003759171899</v>
+        <v>6.662924152940588</v>
       </c>
       <c r="T19" t="n">
-        <v>1.601727577887737</v>
+        <v>1.633580778237912</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02085422270090954</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8523333901209244</v>
       </c>
       <c r="H20" t="n">
-        <v>8.558753306785931</v>
+        <v>8.728959331575918</v>
       </c>
       <c r="I20" t="n">
-        <v>32.21885383716488</v>
+        <v>32.85958302263697</v>
       </c>
       <c r="J20" t="n">
-        <v>70.93015876693009</v>
+        <v>72.34073106977587</v>
       </c>
       <c r="K20" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4200034735946</v>
       </c>
       <c r="L20" t="n">
-        <v>131.8818955167212</v>
+        <v>134.5046014615079</v>
       </c>
       <c r="M20" t="n">
-        <v>146.7440196831613</v>
+        <v>149.6622853880709</v>
       </c>
       <c r="N20" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
-        <v>140.8083628676899</v>
+        <v>143.608587484737</v>
       </c>
       <c r="P20" t="n">
-        <v>120.1766799909631</v>
+        <v>122.5666069161267</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.24768179257215</v>
+        <v>92.04241738242104</v>
       </c>
       <c r="R20" t="n">
-        <v>52.49640301793161</v>
+        <v>53.54038731718357</v>
       </c>
       <c r="S20" t="n">
-        <v>19.04382677684702</v>
+        <v>19.42254712738058</v>
       </c>
       <c r="T20" t="n">
-        <v>3.658336882749217</v>
+        <v>3.731089415254349</v>
       </c>
       <c r="U20" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06818667120967394</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4560385681198893</v>
       </c>
       <c r="H21" t="n">
-        <v>4.318491604115551</v>
+        <v>4.40437248684209</v>
       </c>
       <c r="I21" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70132789360145</v>
       </c>
       <c r="J21" t="n">
-        <v>42.24551664135018</v>
+        <v>43.08564384153744</v>
       </c>
       <c r="K21" t="n">
-        <v>72.20431670695834</v>
+        <v>73.64022790557001</v>
       </c>
       <c r="L21" t="n">
         <v>90.06034685691823</v>
@@ -32567,22 +32569,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.07782908545822</v>
+        <v>58.21292318667219</v>
       </c>
       <c r="R21" t="n">
-        <v>27.76229207441406</v>
+        <v>28.31439460660156</v>
       </c>
       <c r="S21" t="n">
-        <v>8.305545841702701</v>
+        <v>8.470716385911096</v>
       </c>
       <c r="T21" t="n">
-        <v>1.802313253488733</v>
+        <v>1.8381554565885</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03000253737630852</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3823274161833411</v>
       </c>
       <c r="H22" t="n">
-        <v>3.33295653441321</v>
+        <v>3.399238300248254</v>
       </c>
       <c r="I22" t="n">
-        <v>11.27343580351625</v>
+        <v>11.49762811576812</v>
       </c>
       <c r="J22" t="n">
-        <v>26.50347951751689</v>
+        <v>27.03054832416221</v>
       </c>
       <c r="K22" t="n">
-        <v>43.55335839447933</v>
+        <v>44.41949435293726</v>
       </c>
       <c r="L22" t="n">
-        <v>55.73330384845972</v>
+        <v>56.84165967511238</v>
       </c>
       <c r="M22" t="n">
-        <v>58.76295452237927</v>
+        <v>59.93156033863045</v>
       </c>
       <c r="N22" t="n">
-        <v>57.36570280549853</v>
+        <v>58.50652178740169</v>
       </c>
       <c r="O22" t="n">
-        <v>52.9865114489331</v>
+        <v>54.04024242562355</v>
       </c>
       <c r="P22" t="n">
-        <v>45.33911424727331</v>
+        <v>46.24076313548335</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.39045259558288</v>
+        <v>32.01470754967959</v>
       </c>
       <c r="R22" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19083091311641</v>
       </c>
       <c r="S22" t="n">
-        <v>6.533003759171899</v>
+        <v>6.662924152940588</v>
       </c>
       <c r="T22" t="n">
-        <v>1.601727577887737</v>
+        <v>1.633580778237912</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02085422270090954</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8523333901209244</v>
       </c>
       <c r="H23" t="n">
-        <v>8.558753306785931</v>
+        <v>8.728959331575918</v>
       </c>
       <c r="I23" t="n">
-        <v>32.21885383716488</v>
+        <v>32.85958302263697</v>
       </c>
       <c r="J23" t="n">
-        <v>70.93015876693009</v>
+        <v>72.34073106977587</v>
       </c>
       <c r="K23" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4200034735946</v>
       </c>
       <c r="L23" t="n">
-        <v>131.8818955167212</v>
+        <v>134.5046014615079</v>
       </c>
       <c r="M23" t="n">
-        <v>146.7440196831613</v>
+        <v>149.6622853880709</v>
       </c>
       <c r="N23" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O23" t="n">
-        <v>140.8083628676899</v>
+        <v>143.608587484737</v>
       </c>
       <c r="P23" t="n">
-        <v>120.1766799909631</v>
+        <v>122.5666069161267</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.24768179257215</v>
+        <v>92.04241738242104</v>
       </c>
       <c r="R23" t="n">
-        <v>52.49640301793161</v>
+        <v>53.54038731718357</v>
       </c>
       <c r="S23" t="n">
-        <v>19.04382677684702</v>
+        <v>19.42254712738058</v>
       </c>
       <c r="T23" t="n">
-        <v>3.658336882749217</v>
+        <v>3.731089415254349</v>
       </c>
       <c r="U23" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06818667120967394</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4560385681198893</v>
       </c>
       <c r="H24" t="n">
-        <v>4.318491604115551</v>
+        <v>4.40437248684209</v>
       </c>
       <c r="I24" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70132789360145</v>
       </c>
       <c r="J24" t="n">
-        <v>42.24551664135018</v>
+        <v>43.08564384153744</v>
       </c>
       <c r="K24" t="n">
-        <v>72.20431670695834</v>
+        <v>73.64022790557001</v>
       </c>
       <c r="L24" t="n">
         <v>90.06034685691823</v>
@@ -32804,22 +32806,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.07782908545822</v>
+        <v>58.21292318667219</v>
       </c>
       <c r="R24" t="n">
-        <v>27.76229207441406</v>
+        <v>28.31439460660156</v>
       </c>
       <c r="S24" t="n">
-        <v>8.305545841702701</v>
+        <v>8.470716385911096</v>
       </c>
       <c r="T24" t="n">
-        <v>1.802313253488733</v>
+        <v>1.8381554565885</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03000253737630852</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3823274161833411</v>
       </c>
       <c r="H25" t="n">
-        <v>3.33295653441321</v>
+        <v>3.399238300248254</v>
       </c>
       <c r="I25" t="n">
-        <v>11.27343580351625</v>
+        <v>11.49762811576812</v>
       </c>
       <c r="J25" t="n">
-        <v>26.50347951751689</v>
+        <v>27.03054832416221</v>
       </c>
       <c r="K25" t="n">
-        <v>43.55335839447933</v>
+        <v>44.41949435293726</v>
       </c>
       <c r="L25" t="n">
-        <v>55.73330384845972</v>
+        <v>56.84165967511238</v>
       </c>
       <c r="M25" t="n">
-        <v>58.76295452237927</v>
+        <v>59.93156033863045</v>
       </c>
       <c r="N25" t="n">
-        <v>57.36570280549853</v>
+        <v>58.50652178740169</v>
       </c>
       <c r="O25" t="n">
-        <v>52.9865114489331</v>
+        <v>54.04024242562355</v>
       </c>
       <c r="P25" t="n">
-        <v>45.33911424727331</v>
+        <v>46.24076313548335</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.39045259558288</v>
+        <v>32.01470754967959</v>
       </c>
       <c r="R25" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19083091311641</v>
       </c>
       <c r="S25" t="n">
-        <v>6.533003759171899</v>
+        <v>6.662924152940588</v>
       </c>
       <c r="T25" t="n">
-        <v>1.601727577887737</v>
+        <v>1.633580778237912</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02085422270090954</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8523333901209244</v>
       </c>
       <c r="H26" t="n">
-        <v>8.558753306785929</v>
+        <v>8.728959331575918</v>
       </c>
       <c r="I26" t="n">
-        <v>32.21885383716488</v>
+        <v>32.85958302263697</v>
       </c>
       <c r="J26" t="n">
-        <v>70.93015876693009</v>
+        <v>72.34073106977587</v>
       </c>
       <c r="K26" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4200034735946</v>
       </c>
       <c r="L26" t="n">
-        <v>131.8818955167212</v>
+        <v>134.5046014615079</v>
       </c>
       <c r="M26" t="n">
-        <v>146.7440196831613</v>
+        <v>149.6622853880709</v>
       </c>
       <c r="N26" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O26" t="n">
-        <v>140.8083628676899</v>
+        <v>143.608587484737</v>
       </c>
       <c r="P26" t="n">
-        <v>120.1766799909631</v>
+        <v>122.5666069161267</v>
       </c>
       <c r="Q26" t="n">
-        <v>90.24768179257215</v>
+        <v>92.04241738242104</v>
       </c>
       <c r="R26" t="n">
-        <v>52.49640301793161</v>
+        <v>53.54038731718357</v>
       </c>
       <c r="S26" t="n">
-        <v>19.04382677684702</v>
+        <v>19.42254712738058</v>
       </c>
       <c r="T26" t="n">
-        <v>3.658336882749217</v>
+        <v>3.731089415254349</v>
       </c>
       <c r="U26" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06818667120967394</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4560385681198893</v>
       </c>
       <c r="H27" t="n">
-        <v>4.318491604115551</v>
+        <v>4.40437248684209</v>
       </c>
       <c r="I27" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70132789360145</v>
       </c>
       <c r="J27" t="n">
-        <v>42.24551664135018</v>
+        <v>43.08564384153744</v>
       </c>
       <c r="K27" t="n">
-        <v>72.20431670695834</v>
+        <v>73.64022790557001</v>
       </c>
       <c r="L27" t="n">
         <v>90.06034685691823</v>
@@ -33041,22 +33043,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.07782908545823</v>
+        <v>58.21292318667219</v>
       </c>
       <c r="R27" t="n">
-        <v>27.76229207441406</v>
+        <v>28.31439460660156</v>
       </c>
       <c r="S27" t="n">
-        <v>8.305545841702699</v>
+        <v>8.470716385911096</v>
       </c>
       <c r="T27" t="n">
-        <v>1.802313253488733</v>
+        <v>1.8381554565885</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03000253737630852</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3823274161833411</v>
       </c>
       <c r="H28" t="n">
-        <v>3.33295653441321</v>
+        <v>3.399238300248254</v>
       </c>
       <c r="I28" t="n">
-        <v>11.27343580351625</v>
+        <v>11.49762811576812</v>
       </c>
       <c r="J28" t="n">
-        <v>26.50347951751689</v>
+        <v>27.03054832416221</v>
       </c>
       <c r="K28" t="n">
-        <v>43.55335839447932</v>
+        <v>44.41949435293726</v>
       </c>
       <c r="L28" t="n">
-        <v>55.73330384845972</v>
+        <v>56.84165967511238</v>
       </c>
       <c r="M28" t="n">
-        <v>58.76295452237927</v>
+        <v>59.93156033863045</v>
       </c>
       <c r="N28" t="n">
-        <v>57.36570280549853</v>
+        <v>58.50652178740169</v>
       </c>
       <c r="O28" t="n">
-        <v>52.9865114489331</v>
+        <v>54.04024242562355</v>
       </c>
       <c r="P28" t="n">
-        <v>45.33911424727332</v>
+        <v>46.24076313548335</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.39045259558288</v>
+        <v>32.01470754967959</v>
       </c>
       <c r="R28" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19083091311641</v>
       </c>
       <c r="S28" t="n">
-        <v>6.533003759171898</v>
+        <v>6.662924152940588</v>
       </c>
       <c r="T28" t="n">
-        <v>1.601727577887737</v>
+        <v>1.633580778237912</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02085422270090954</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8523333901209244</v>
       </c>
       <c r="H29" t="n">
-        <v>8.558753306785931</v>
+        <v>8.72895933157592</v>
       </c>
       <c r="I29" t="n">
-        <v>32.21885383716488</v>
+        <v>32.85958302263697</v>
       </c>
       <c r="J29" t="n">
-        <v>70.93015876693009</v>
+        <v>72.34073106977587</v>
       </c>
       <c r="K29" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4200034735946</v>
       </c>
       <c r="L29" t="n">
-        <v>131.8818955167212</v>
+        <v>134.5046014615079</v>
       </c>
       <c r="M29" t="n">
-        <v>146.7440196831613</v>
+        <v>149.6622853880709</v>
       </c>
       <c r="N29" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O29" t="n">
-        <v>140.8083628676899</v>
+        <v>143.608587484737</v>
       </c>
       <c r="P29" t="n">
-        <v>120.1766799909631</v>
+        <v>122.5666069161267</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.24768179257215</v>
+        <v>92.04241738242102</v>
       </c>
       <c r="R29" t="n">
-        <v>52.49640301793161</v>
+        <v>53.54038731718357</v>
       </c>
       <c r="S29" t="n">
-        <v>19.04382677684702</v>
+        <v>19.42254712738058</v>
       </c>
       <c r="T29" t="n">
-        <v>3.658336882749217</v>
+        <v>3.731089415254349</v>
       </c>
       <c r="U29" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06818667120967394</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4560385681198892</v>
       </c>
       <c r="H30" t="n">
-        <v>4.318491604115551</v>
+        <v>4.40437248684209</v>
       </c>
       <c r="I30" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70132789360145</v>
       </c>
       <c r="J30" t="n">
-        <v>42.24551664135018</v>
+        <v>43.08564384153744</v>
       </c>
       <c r="K30" t="n">
-        <v>72.20431670695834</v>
+        <v>73.64022790557001</v>
       </c>
       <c r="L30" t="n">
         <v>90.06034685691823</v>
@@ -33278,22 +33280,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.07782908545822</v>
+        <v>58.21292318667219</v>
       </c>
       <c r="R30" t="n">
-        <v>27.76229207441406</v>
+        <v>28.31439460660156</v>
       </c>
       <c r="S30" t="n">
-        <v>8.305545841702701</v>
+        <v>8.470716385911096</v>
       </c>
       <c r="T30" t="n">
-        <v>1.802313253488733</v>
+        <v>1.8381554565885</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03000253737630852</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3823274161833412</v>
       </c>
       <c r="H31" t="n">
-        <v>3.33295653441321</v>
+        <v>3.399238300248254</v>
       </c>
       <c r="I31" t="n">
-        <v>11.27343580351625</v>
+        <v>11.49762811576812</v>
       </c>
       <c r="J31" t="n">
-        <v>26.50347951751689</v>
+        <v>27.03054832416221</v>
       </c>
       <c r="K31" t="n">
-        <v>43.55335839447933</v>
+        <v>44.41949435293726</v>
       </c>
       <c r="L31" t="n">
-        <v>55.73330384845972</v>
+        <v>56.84165967511238</v>
       </c>
       <c r="M31" t="n">
-        <v>58.76295452237927</v>
+        <v>59.93156033863045</v>
       </c>
       <c r="N31" t="n">
-        <v>57.36570280549853</v>
+        <v>58.50652178740168</v>
       </c>
       <c r="O31" t="n">
-        <v>52.9865114489331</v>
+        <v>54.04024242562355</v>
       </c>
       <c r="P31" t="n">
-        <v>45.33911424727331</v>
+        <v>46.24076313548335</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.39045259558288</v>
+        <v>32.01470754967959</v>
       </c>
       <c r="R31" t="n">
-        <v>16.85562680900585</v>
+        <v>17.1908309131164</v>
       </c>
       <c r="S31" t="n">
-        <v>6.533003759171899</v>
+        <v>6.662924152940588</v>
       </c>
       <c r="T31" t="n">
-        <v>1.601727577887737</v>
+        <v>1.633580778237912</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02085422270090954</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8523333901209244</v>
       </c>
       <c r="H32" t="n">
-        <v>8.558753306785931</v>
+        <v>8.728959331575918</v>
       </c>
       <c r="I32" t="n">
-        <v>32.21885383716488</v>
+        <v>32.85958302263697</v>
       </c>
       <c r="J32" t="n">
-        <v>70.93015876693009</v>
+        <v>72.34073106977587</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4200034735946</v>
       </c>
       <c r="L32" t="n">
-        <v>131.8818955167212</v>
+        <v>134.5046014615079</v>
       </c>
       <c r="M32" t="n">
-        <v>146.7440196831613</v>
+        <v>149.6622853880709</v>
       </c>
       <c r="N32" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O32" t="n">
-        <v>140.8083628676899</v>
+        <v>143.608587484737</v>
       </c>
       <c r="P32" t="n">
-        <v>120.1766799909631</v>
+        <v>122.5666069161267</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.24768179257215</v>
+        <v>92.04241738242104</v>
       </c>
       <c r="R32" t="n">
-        <v>52.49640301793161</v>
+        <v>53.54038731718357</v>
       </c>
       <c r="S32" t="n">
-        <v>19.04382677684702</v>
+        <v>19.42254712738058</v>
       </c>
       <c r="T32" t="n">
-        <v>3.658336882749217</v>
+        <v>3.731089415254349</v>
       </c>
       <c r="U32" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06818667120967394</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4560385681198893</v>
       </c>
       <c r="H33" t="n">
-        <v>4.318491604115551</v>
+        <v>4.40437248684209</v>
       </c>
       <c r="I33" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70132789360145</v>
       </c>
       <c r="J33" t="n">
-        <v>42.24551664135018</v>
+        <v>43.08564384153744</v>
       </c>
       <c r="K33" t="n">
-        <v>72.20431670695834</v>
+        <v>73.64022790557001</v>
       </c>
       <c r="L33" t="n">
         <v>90.06034685691823</v>
@@ -33515,22 +33517,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.07782908545822</v>
+        <v>58.21292318667219</v>
       </c>
       <c r="R33" t="n">
-        <v>27.76229207441406</v>
+        <v>28.31439460660156</v>
       </c>
       <c r="S33" t="n">
-        <v>8.305545841702701</v>
+        <v>8.470716385911096</v>
       </c>
       <c r="T33" t="n">
-        <v>1.802313253488733</v>
+        <v>1.8381554565885</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03000253737630852</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3823274161833411</v>
       </c>
       <c r="H34" t="n">
-        <v>3.33295653441321</v>
+        <v>3.399238300248254</v>
       </c>
       <c r="I34" t="n">
-        <v>11.27343580351625</v>
+        <v>11.49762811576812</v>
       </c>
       <c r="J34" t="n">
-        <v>26.50347951751689</v>
+        <v>27.03054832416221</v>
       </c>
       <c r="K34" t="n">
-        <v>43.55335839447933</v>
+        <v>44.41949435293726</v>
       </c>
       <c r="L34" t="n">
-        <v>55.73330384845972</v>
+        <v>56.84165967511238</v>
       </c>
       <c r="M34" t="n">
-        <v>58.76295452237927</v>
+        <v>59.93156033863045</v>
       </c>
       <c r="N34" t="n">
-        <v>57.36570280549853</v>
+        <v>58.50652178740169</v>
       </c>
       <c r="O34" t="n">
-        <v>52.9865114489331</v>
+        <v>54.04024242562355</v>
       </c>
       <c r="P34" t="n">
-        <v>45.33911424727331</v>
+        <v>46.24076313548335</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.39045259558288</v>
+        <v>32.01470754967959</v>
       </c>
       <c r="R34" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19083091311641</v>
       </c>
       <c r="S34" t="n">
-        <v>6.533003759171899</v>
+        <v>6.662924152940588</v>
       </c>
       <c r="T34" t="n">
-        <v>1.601727577887737</v>
+        <v>1.633580778237912</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02085422270090954</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8523333901209244</v>
       </c>
       <c r="H35" t="n">
-        <v>8.558753306785931</v>
+        <v>8.728959331575918</v>
       </c>
       <c r="I35" t="n">
-        <v>32.21885383716488</v>
+        <v>32.85958302263697</v>
       </c>
       <c r="J35" t="n">
-        <v>70.93015876693009</v>
+        <v>72.34073106977587</v>
       </c>
       <c r="K35" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4200034735946</v>
       </c>
       <c r="L35" t="n">
-        <v>131.8818955167212</v>
+        <v>134.5046014615079</v>
       </c>
       <c r="M35" t="n">
-        <v>146.7440196831613</v>
+        <v>149.6622853880709</v>
       </c>
       <c r="N35" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O35" t="n">
-        <v>140.8083628676899</v>
+        <v>143.608587484737</v>
       </c>
       <c r="P35" t="n">
-        <v>120.1766799909631</v>
+        <v>122.5666069161267</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.24768179257215</v>
+        <v>92.04241738242104</v>
       </c>
       <c r="R35" t="n">
-        <v>52.49640301793161</v>
+        <v>53.54038731718357</v>
       </c>
       <c r="S35" t="n">
-        <v>19.04382677684702</v>
+        <v>19.42254712738058</v>
       </c>
       <c r="T35" t="n">
-        <v>3.658336882749217</v>
+        <v>3.731089415254349</v>
       </c>
       <c r="U35" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06818667120967394</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4560385681198893</v>
       </c>
       <c r="H36" t="n">
-        <v>4.318491604115551</v>
+        <v>4.40437248684209</v>
       </c>
       <c r="I36" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70132789360145</v>
       </c>
       <c r="J36" t="n">
-        <v>42.24551664135018</v>
+        <v>43.08564384153744</v>
       </c>
       <c r="K36" t="n">
-        <v>72.20431670695834</v>
+        <v>73.64022790557001</v>
       </c>
       <c r="L36" t="n">
         <v>90.06034685691823</v>
@@ -33752,22 +33754,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.07782908545822</v>
+        <v>58.21292318667219</v>
       </c>
       <c r="R36" t="n">
-        <v>27.76229207441406</v>
+        <v>28.31439460660156</v>
       </c>
       <c r="S36" t="n">
-        <v>8.305545841702701</v>
+        <v>8.470716385911096</v>
       </c>
       <c r="T36" t="n">
-        <v>1.802313253488733</v>
+        <v>1.8381554565885</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03000253737630852</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3823274161833411</v>
       </c>
       <c r="H37" t="n">
-        <v>3.33295653441321</v>
+        <v>3.399238300248254</v>
       </c>
       <c r="I37" t="n">
-        <v>11.27343580351625</v>
+        <v>11.49762811576812</v>
       </c>
       <c r="J37" t="n">
-        <v>26.50347951751689</v>
+        <v>27.03054832416221</v>
       </c>
       <c r="K37" t="n">
-        <v>43.55335839447933</v>
+        <v>44.41949435293726</v>
       </c>
       <c r="L37" t="n">
-        <v>55.73330384845972</v>
+        <v>56.84165967511238</v>
       </c>
       <c r="M37" t="n">
-        <v>58.76295452237927</v>
+        <v>59.93156033863045</v>
       </c>
       <c r="N37" t="n">
-        <v>57.36570280549853</v>
+        <v>58.50652178740169</v>
       </c>
       <c r="O37" t="n">
-        <v>52.9865114489331</v>
+        <v>54.04024242562355</v>
       </c>
       <c r="P37" t="n">
-        <v>45.33911424727331</v>
+        <v>46.24076313548335</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.39045259558288</v>
+        <v>32.01470754967959</v>
       </c>
       <c r="R37" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19083091311641</v>
       </c>
       <c r="S37" t="n">
-        <v>6.533003759171899</v>
+        <v>6.662924152940588</v>
       </c>
       <c r="T37" t="n">
-        <v>1.601727577887737</v>
+        <v>1.633580778237912</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02085422270090954</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8523333901209244</v>
       </c>
       <c r="H38" t="n">
-        <v>8.558753306785931</v>
+        <v>8.728959331575918</v>
       </c>
       <c r="I38" t="n">
-        <v>32.21885383716488</v>
+        <v>32.85958302263697</v>
       </c>
       <c r="J38" t="n">
-        <v>70.93015876693009</v>
+        <v>72.34073106977587</v>
       </c>
       <c r="K38" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4200034735946</v>
       </c>
       <c r="L38" t="n">
-        <v>131.8818955167212</v>
+        <v>134.5046014615079</v>
       </c>
       <c r="M38" t="n">
-        <v>146.7440196831613</v>
+        <v>149.6622853880709</v>
       </c>
       <c r="N38" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O38" t="n">
-        <v>140.8083628676899</v>
+        <v>143.608587484737</v>
       </c>
       <c r="P38" t="n">
-        <v>120.1766799909631</v>
+        <v>122.5666069161267</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.24768179257215</v>
+        <v>92.04241738242104</v>
       </c>
       <c r="R38" t="n">
-        <v>52.49640301793161</v>
+        <v>53.54038731718357</v>
       </c>
       <c r="S38" t="n">
-        <v>19.04382677684702</v>
+        <v>19.42254712738058</v>
       </c>
       <c r="T38" t="n">
-        <v>3.658336882749217</v>
+        <v>3.731089415254349</v>
       </c>
       <c r="U38" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06818667120967394</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4560385681198893</v>
       </c>
       <c r="H39" t="n">
-        <v>4.318491604115551</v>
+        <v>4.40437248684209</v>
       </c>
       <c r="I39" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70132789360145</v>
       </c>
       <c r="J39" t="n">
-        <v>42.24551664135018</v>
+        <v>43.08564384153744</v>
       </c>
       <c r="K39" t="n">
-        <v>72.20431670695834</v>
+        <v>73.64022790557001</v>
       </c>
       <c r="L39" t="n">
         <v>90.06034685691823</v>
@@ -33989,22 +33991,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.07782908545822</v>
+        <v>58.21292318667219</v>
       </c>
       <c r="R39" t="n">
-        <v>27.76229207441406</v>
+        <v>28.31439460660156</v>
       </c>
       <c r="S39" t="n">
-        <v>8.305545841702701</v>
+        <v>8.470716385911096</v>
       </c>
       <c r="T39" t="n">
-        <v>1.802313253488733</v>
+        <v>1.8381554565885</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03000253737630852</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3823274161833411</v>
       </c>
       <c r="H40" t="n">
-        <v>3.33295653441321</v>
+        <v>3.399238300248254</v>
       </c>
       <c r="I40" t="n">
-        <v>11.27343580351625</v>
+        <v>11.49762811576812</v>
       </c>
       <c r="J40" t="n">
-        <v>26.50347951751689</v>
+        <v>27.03054832416221</v>
       </c>
       <c r="K40" t="n">
-        <v>43.55335839447933</v>
+        <v>44.41949435293726</v>
       </c>
       <c r="L40" t="n">
-        <v>55.73330384845972</v>
+        <v>56.84165967511238</v>
       </c>
       <c r="M40" t="n">
-        <v>58.76295452237927</v>
+        <v>59.93156033863045</v>
       </c>
       <c r="N40" t="n">
-        <v>57.36570280549853</v>
+        <v>58.50652178740169</v>
       </c>
       <c r="O40" t="n">
-        <v>52.9865114489331</v>
+        <v>54.04024242562355</v>
       </c>
       <c r="P40" t="n">
-        <v>45.33911424727331</v>
+        <v>46.24076313548335</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.39045259558288</v>
+        <v>32.01470754967959</v>
       </c>
       <c r="R40" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19083091311641</v>
       </c>
       <c r="S40" t="n">
-        <v>6.533003759171899</v>
+        <v>6.662924152940588</v>
       </c>
       <c r="T40" t="n">
-        <v>1.601727577887737</v>
+        <v>1.633580778237912</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02085422270090954</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8523333901209244</v>
       </c>
       <c r="H41" t="n">
-        <v>8.558753306785931</v>
+        <v>8.728959331575918</v>
       </c>
       <c r="I41" t="n">
-        <v>32.21885383716488</v>
+        <v>32.85958302263697</v>
       </c>
       <c r="J41" t="n">
-        <v>70.93015876693009</v>
+        <v>72.34073106977587</v>
       </c>
       <c r="K41" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4200034735946</v>
       </c>
       <c r="L41" t="n">
-        <v>131.8818955167212</v>
+        <v>134.5046014615079</v>
       </c>
       <c r="M41" t="n">
-        <v>146.7440196831613</v>
+        <v>149.6622853880709</v>
       </c>
       <c r="N41" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O41" t="n">
-        <v>140.8083628676899</v>
+        <v>143.608587484737</v>
       </c>
       <c r="P41" t="n">
-        <v>120.1766799909631</v>
+        <v>122.5666069161267</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.24768179257215</v>
+        <v>92.04241738242104</v>
       </c>
       <c r="R41" t="n">
-        <v>52.49640301793161</v>
+        <v>53.54038731718357</v>
       </c>
       <c r="S41" t="n">
-        <v>19.04382677684702</v>
+        <v>19.42254712738058</v>
       </c>
       <c r="T41" t="n">
-        <v>3.658336882749217</v>
+        <v>3.731089415254349</v>
       </c>
       <c r="U41" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.06818667120967394</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4560385681198893</v>
       </c>
       <c r="H42" t="n">
-        <v>4.318491604115551</v>
+        <v>4.40437248684209</v>
       </c>
       <c r="I42" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70132789360145</v>
       </c>
       <c r="J42" t="n">
-        <v>42.24551664135018</v>
+        <v>43.08564384153744</v>
       </c>
       <c r="K42" t="n">
-        <v>72.20431670695834</v>
+        <v>73.64022790557001</v>
       </c>
       <c r="L42" t="n">
         <v>90.06034685691823</v>
@@ -34226,22 +34228,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.07782908545822</v>
+        <v>58.21292318667219</v>
       </c>
       <c r="R42" t="n">
-        <v>27.76229207441406</v>
+        <v>28.31439460660156</v>
       </c>
       <c r="S42" t="n">
-        <v>8.305545841702701</v>
+        <v>8.470716385911096</v>
       </c>
       <c r="T42" t="n">
-        <v>1.802313253488733</v>
+        <v>1.8381554565885</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03000253737630852</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3823274161833411</v>
       </c>
       <c r="H43" t="n">
-        <v>3.33295653441321</v>
+        <v>3.399238300248254</v>
       </c>
       <c r="I43" t="n">
-        <v>11.27343580351625</v>
+        <v>11.49762811576812</v>
       </c>
       <c r="J43" t="n">
-        <v>26.50347951751689</v>
+        <v>27.03054832416221</v>
       </c>
       <c r="K43" t="n">
-        <v>43.55335839447933</v>
+        <v>44.41949435293726</v>
       </c>
       <c r="L43" t="n">
-        <v>55.73330384845972</v>
+        <v>56.84165967511238</v>
       </c>
       <c r="M43" t="n">
-        <v>58.76295452237927</v>
+        <v>59.93156033863045</v>
       </c>
       <c r="N43" t="n">
-        <v>57.36570280549853</v>
+        <v>58.50652178740169</v>
       </c>
       <c r="O43" t="n">
-        <v>52.9865114489331</v>
+        <v>54.04024242562355</v>
       </c>
       <c r="P43" t="n">
-        <v>45.33911424727331</v>
+        <v>46.24076313548335</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.39045259558288</v>
+        <v>32.01470754967959</v>
       </c>
       <c r="R43" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19083091311641</v>
       </c>
       <c r="S43" t="n">
-        <v>6.533003759171899</v>
+        <v>6.662924152940588</v>
       </c>
       <c r="T43" t="n">
-        <v>1.601727577887737</v>
+        <v>1.633580778237912</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.02085422270090954</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8357137367788041</v>
+        <v>0.8526908464842476</v>
       </c>
       <c r="H44" t="n">
-        <v>8.558753306785931</v>
+        <v>8.732620131556803</v>
       </c>
       <c r="I44" t="n">
-        <v>32.21885383716488</v>
+        <v>32.87336385908399</v>
       </c>
       <c r="J44" t="n">
-        <v>70.93015876693009</v>
+        <v>72.37106973179249</v>
       </c>
       <c r="K44" t="n">
-        <v>106.3059212447769</v>
+        <v>108.4654732634707</v>
       </c>
       <c r="L44" t="n">
-        <v>131.8818955167212</v>
+        <v>134.561010756563</v>
       </c>
       <c r="M44" t="n">
-        <v>146.7440196831613</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N44" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>140.8083628676899</v>
+        <v>143.6688148605729</v>
       </c>
       <c r="P44" t="n">
-        <v>120.1766799909631</v>
+        <v>122.618009587993</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.24768179257215</v>
+        <v>92.08101864827586</v>
       </c>
       <c r="R44" t="n">
-        <v>52.49640301793161</v>
+        <v>53.56284138546617</v>
       </c>
       <c r="S44" t="n">
-        <v>19.04382677684702</v>
+        <v>19.43069266425981</v>
       </c>
       <c r="T44" t="n">
-        <v>3.658336882749217</v>
+        <v>3.732654180484796</v>
       </c>
       <c r="U44" t="n">
-        <v>0.06685709894230432</v>
+        <v>0.0682152677187398</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4471462696359426</v>
+        <v>0.4562298241354165</v>
       </c>
       <c r="H45" t="n">
-        <v>4.318491604115551</v>
+        <v>4.406219617307838</v>
       </c>
       <c r="I45" t="n">
-        <v>15.39516761685153</v>
+        <v>15.70791280466237</v>
       </c>
       <c r="J45" t="n">
-        <v>42.24551664135018</v>
+        <v>43.1037133407939</v>
       </c>
       <c r="K45" t="n">
-        <v>72.20431670695834</v>
+        <v>73.67111155786679</v>
       </c>
       <c r="L45" t="n">
         <v>90.06034685691823</v>
@@ -34463,22 +34465,22 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>85.38532582197224</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.07782908545822</v>
+        <v>58.2373368492858</v>
       </c>
       <c r="R45" t="n">
-        <v>27.76229207441406</v>
+        <v>28.32626925640771</v>
       </c>
       <c r="S45" t="n">
-        <v>8.305545841702701</v>
+        <v>8.474268882515295</v>
       </c>
       <c r="T45" t="n">
-        <v>1.802313253488733</v>
+        <v>1.838926352545823</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02941751773920676</v>
+        <v>0.03001512000890899</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3748724118460663</v>
+        <v>0.3824877588020531</v>
       </c>
       <c r="H46" t="n">
-        <v>3.33295653441321</v>
+        <v>3.400663891894621</v>
       </c>
       <c r="I46" t="n">
-        <v>11.27343580351625</v>
+        <v>11.50245005561084</v>
       </c>
       <c r="J46" t="n">
-        <v>26.50347951751689</v>
+        <v>27.04188454730516</v>
       </c>
       <c r="K46" t="n">
-        <v>43.55335839447933</v>
+        <v>44.43812324991126</v>
       </c>
       <c r="L46" t="n">
-        <v>55.73330384845972</v>
+        <v>56.86549824953435</v>
       </c>
       <c r="M46" t="n">
-        <v>58.76295452237927</v>
+        <v>59.95669477294365</v>
       </c>
       <c r="N46" t="n">
-        <v>57.36570280549853</v>
+        <v>58.53105858104513</v>
       </c>
       <c r="O46" t="n">
-        <v>52.9865114489331</v>
+        <v>54.0629061259484</v>
       </c>
       <c r="P46" t="n">
-        <v>45.33911424727331</v>
+        <v>46.26015584638647</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.39045259558288</v>
+        <v>32.02813405750647</v>
       </c>
       <c r="R46" t="n">
-        <v>16.85562680900585</v>
+        <v>17.19804050031777</v>
       </c>
       <c r="S46" t="n">
-        <v>6.533003759171899</v>
+        <v>6.665718487486687</v>
       </c>
       <c r="T46" t="n">
-        <v>1.601727577887737</v>
+        <v>1.634265878517863</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02044758610069455</v>
+        <v>0.0208629686619302</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_18_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_18_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-51238.68639307673</v>
+        <v>-64896.77080008481</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23273860.31561603</v>
+        <v>23273959.93496178</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1638199.653037887</v>
+        <v>1638165.136423924</v>
       </c>
     </row>
     <row r="11">
@@ -23299,10 +23299,10 @@
         <v>5.955249939359391</v>
       </c>
       <c r="P11" t="n">
-        <v>27.73484032479853</v>
+        <v>27.73484032479854</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.45628103597113</v>
+        <v>52.45628103597114</v>
       </c>
       <c r="R11" t="n">
         <v>86.59021226200232</v>
@@ -23451,7 +23451,7 @@
         <v>30.37019922731282</v>
       </c>
       <c r="N13" t="n">
-        <v>24.48908211499988</v>
+        <v>24.48908211499989</v>
       </c>
       <c r="O13" t="n">
         <v>35.95650756807426</v>
@@ -23536,10 +23536,10 @@
         <v>5.955249939359391</v>
       </c>
       <c r="P14" t="n">
-        <v>27.73484032479853</v>
+        <v>27.73484032479854</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.45628103597113</v>
+        <v>52.45628103597114</v>
       </c>
       <c r="R14" t="n">
         <v>86.59021226200232</v>
@@ -23688,7 +23688,7 @@
         <v>30.37019922731282</v>
       </c>
       <c r="N16" t="n">
-        <v>24.48908211499988</v>
+        <v>24.48908211499989</v>
       </c>
       <c r="O16" t="n">
         <v>35.95650756807426</v>
@@ -24010,10 +24010,10 @@
         <v>5.955249939359391</v>
       </c>
       <c r="P20" t="n">
-        <v>27.73484032479853</v>
+        <v>27.73484032479854</v>
       </c>
       <c r="Q20" t="n">
-        <v>52.45628103597113</v>
+        <v>52.45628103597114</v>
       </c>
       <c r="R20" t="n">
         <v>86.59021226200232</v>
@@ -24162,7 +24162,7 @@
         <v>30.37019922731282</v>
       </c>
       <c r="N22" t="n">
-        <v>24.48908211499988</v>
+        <v>24.48908211499989</v>
       </c>
       <c r="O22" t="n">
         <v>35.95650756807426</v>
@@ -24721,10 +24721,10 @@
         <v>5.955249939359391</v>
       </c>
       <c r="P29" t="n">
-        <v>27.73484032479854</v>
+        <v>27.73484032479853</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.45628103597114</v>
+        <v>52.45628103597113</v>
       </c>
       <c r="R29" t="n">
         <v>86.59021226200232</v>
@@ -24873,7 +24873,7 @@
         <v>30.37019922731282</v>
       </c>
       <c r="N31" t="n">
-        <v>24.48908211499989</v>
+        <v>24.48908211499988</v>
       </c>
       <c r="O31" t="n">
         <v>35.95650756807426</v>
@@ -25432,10 +25432,10 @@
         <v>5.955249939359391</v>
       </c>
       <c r="P38" t="n">
-        <v>27.73484032479853</v>
+        <v>27.73484032479854</v>
       </c>
       <c r="Q38" t="n">
-        <v>52.45628103597113</v>
+        <v>52.45628103597114</v>
       </c>
       <c r="R38" t="n">
         <v>86.59021226200232</v>
@@ -25584,7 +25584,7 @@
         <v>30.37019922731282</v>
       </c>
       <c r="N40" t="n">
-        <v>24.48908211499988</v>
+        <v>24.48908211499989</v>
       </c>
       <c r="O40" t="n">
         <v>35.95650756807426</v>
@@ -25879,49 +25879,49 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.1784371103926</v>
+        <v>408.1787945667559</v>
       </c>
       <c r="H44" t="n">
-        <v>312.1095997976174</v>
+        <v>312.1132605975983</v>
       </c>
       <c r="I44" t="n">
-        <v>104.0803818793758</v>
+        <v>104.0941627158228</v>
       </c>
       <c r="J44" t="n">
-        <v>45.30876821055361</v>
+        <v>45.33910687257023</v>
       </c>
       <c r="K44" t="n">
-        <v>34.59292991576666</v>
+        <v>34.63839970564274</v>
       </c>
       <c r="L44" t="n">
-        <v>18.68715897392866</v>
+        <v>18.74356826898381</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.06276620965638813</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>5.895022563523497</v>
+        <v>5.955249939359391</v>
       </c>
       <c r="P44" t="n">
-        <v>27.68343765293218</v>
+        <v>27.73484032479853</v>
       </c>
       <c r="Q44" t="n">
-        <v>52.41767977011631</v>
+        <v>52.45628103597113</v>
       </c>
       <c r="R44" t="n">
-        <v>86.56775819371971</v>
+        <v>86.59021226200232</v>
       </c>
       <c r="S44" t="n">
-        <v>145.4177268441001</v>
+        <v>145.4258723809793</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5329422356927</v>
+        <v>217.5345070009231</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1269870020286</v>
+        <v>253.1270155985377</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25958,19 +25958,19 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.4029899247188</v>
+        <v>118.4031811807343</v>
       </c>
       <c r="H45" t="n">
-        <v>83.00822261809724</v>
+        <v>83.01006974856298</v>
       </c>
       <c r="I45" t="n">
-        <v>48.98163419533764</v>
+        <v>48.98821910639855</v>
       </c>
       <c r="J45" t="n">
-        <v>39.34074399253945</v>
+        <v>39.35881349179591</v>
       </c>
       <c r="K45" t="n">
-        <v>15.92582377546655</v>
+        <v>15.95670742776333</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.7508163066282</v>
+        <v>32.7752299692418</v>
       </c>
       <c r="R45" t="n">
-        <v>66.36540832016887</v>
+        <v>66.37728296997503</v>
       </c>
       <c r="S45" t="n">
-        <v>125.1071014466145</v>
+        <v>125.1106539432188</v>
       </c>
       <c r="T45" t="n">
-        <v>173.3750473305348</v>
+        <v>173.3758182264921</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9324967681357</v>
+        <v>207.9325093507683</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -26037,49 +26037,49 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.1890256027469</v>
+        <v>166.1891859453656</v>
       </c>
       <c r="H46" t="n">
-        <v>150.5231016362263</v>
+        <v>150.5245272278727</v>
       </c>
       <c r="I46" t="n">
-        <v>120.261031053682</v>
+        <v>120.2658529935248</v>
       </c>
       <c r="J46" t="n">
-        <v>55.50513938830231</v>
+        <v>55.51647561144526</v>
       </c>
       <c r="K46" t="n">
-        <v>39.42049456093673</v>
+        <v>39.43912345791073</v>
       </c>
       <c r="L46" t="n">
-        <v>30.80954133327054</v>
+        <v>30.8333799076925</v>
       </c>
       <c r="M46" t="n">
-        <v>30.34506479299962</v>
+        <v>30.37019922731282</v>
       </c>
       <c r="N46" t="n">
-        <v>24.46454532135644</v>
+        <v>24.48908211499988</v>
       </c>
       <c r="O46" t="n">
-        <v>35.9338438677494</v>
+        <v>35.95650756807426</v>
       </c>
       <c r="P46" t="n">
-        <v>43.26304678555946</v>
+        <v>43.28243949646259</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.45011700163332</v>
+        <v>66.46354350946021</v>
       </c>
       <c r="R46" t="n">
-        <v>105.463938973431</v>
+        <v>105.4711485606324</v>
       </c>
       <c r="S46" t="n">
-        <v>194.1222044917894</v>
+        <v>194.1249988263355</v>
       </c>
       <c r="T46" t="n">
-        <v>231.7275954349304</v>
+        <v>231.7282805352103</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5635408718562</v>
+        <v>282.5635496178172</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>188853.1105595388</v>
+        <v>188793.3389520882</v>
       </c>
     </row>
   </sheetData>
@@ -26334,19 +26334,19 @@
         <v>31465.55649201468</v>
       </c>
       <c r="I2" t="n">
-        <v>31465.55649201468</v>
+        <v>31465.55649201469</v>
       </c>
       <c r="J2" t="n">
         <v>31465.55649201468</v>
       </c>
       <c r="K2" t="n">
+        <v>31465.55649201469</v>
+      </c>
+      <c r="L2" t="n">
         <v>31465.55649201468</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>31465.55649201469</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31465.55649201468</v>
       </c>
       <c r="N2" t="n">
         <v>31465.55649201468</v>
@@ -26355,7 +26355,7 @@
         <v>31465.55649201468</v>
       </c>
       <c r="P2" t="n">
-        <v>31475.51842658978</v>
+        <v>31465.55649201468</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>59.1812011482029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26511,7 +26511,7 @@
         <v>4621.990891278247</v>
       </c>
       <c r="P5" t="n">
-        <v>4623.929287772457</v>
+        <v>4621.990891278247</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-35430.92178093357</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-35430.92178093357</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-35430.92178093357</v>
       </c>
       <c r="E6" t="n">
-        <v>-143492.2760518148</v>
+        <v>-144980.9422678282</v>
       </c>
       <c r="F6" t="n">
-        <v>26843.56560073644</v>
+        <v>25354.89938472302</v>
       </c>
       <c r="G6" t="n">
-        <v>26843.56560073644</v>
+        <v>25354.89938472302</v>
       </c>
       <c r="H6" t="n">
-        <v>26843.56560073644</v>
+        <v>25354.89938472302</v>
       </c>
       <c r="I6" t="n">
-        <v>26843.56560073644</v>
+        <v>25354.89938472302</v>
       </c>
       <c r="J6" t="n">
-        <v>26843.56560073643</v>
+        <v>25354.89938472302</v>
       </c>
       <c r="K6" t="n">
-        <v>26843.56560073643</v>
+        <v>25354.89938472302</v>
       </c>
       <c r="L6" t="n">
-        <v>26843.56560073644</v>
+        <v>25354.89938472301</v>
       </c>
       <c r="M6" t="n">
-        <v>26843.56560073643</v>
+        <v>25354.89938472302</v>
       </c>
       <c r="N6" t="n">
-        <v>26843.56560073644</v>
+        <v>25354.89938472302</v>
       </c>
       <c r="O6" t="n">
-        <v>26843.56560073643</v>
+        <v>25354.89938472301</v>
       </c>
       <c r="P6" t="n">
-        <v>26792.40793766912</v>
+        <v>25354.89938472301</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>212.0179307925801</v>
       </c>
       <c r="P3" t="n">
-        <v>212.1068480629568</v>
+        <v>212.0179307925801</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08891727037664054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31755,7 +31755,7 @@
         <v>0.8523333901209244</v>
       </c>
       <c r="H11" t="n">
-        <v>8.728959331575918</v>
+        <v>8.72895933157592</v>
       </c>
       <c r="I11" t="n">
         <v>32.85958302263697</v>
@@ -31782,7 +31782,7 @@
         <v>122.5666069161267</v>
       </c>
       <c r="Q11" t="n">
-        <v>92.04241738242104</v>
+        <v>92.04241738242102</v>
       </c>
       <c r="R11" t="n">
         <v>53.54038731718357</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4560385681198893</v>
+        <v>0.4560385681198892</v>
       </c>
       <c r="H12" t="n">
         <v>4.40437248684209</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3823274161833411</v>
+        <v>0.3823274161833412</v>
       </c>
       <c r="H13" t="n">
         <v>3.399238300248254</v>
@@ -31931,7 +31931,7 @@
         <v>59.93156033863045</v>
       </c>
       <c r="N13" t="n">
-        <v>58.50652178740169</v>
+        <v>58.50652178740168</v>
       </c>
       <c r="O13" t="n">
         <v>54.04024242562355</v>
@@ -31943,7 +31943,7 @@
         <v>32.01470754967959</v>
       </c>
       <c r="R13" t="n">
-        <v>17.19083091311641</v>
+        <v>17.1908309131164</v>
       </c>
       <c r="S13" t="n">
         <v>6.662924152940588</v>
@@ -31992,7 +31992,7 @@
         <v>0.8523333901209244</v>
       </c>
       <c r="H14" t="n">
-        <v>8.728959331575918</v>
+        <v>8.72895933157592</v>
       </c>
       <c r="I14" t="n">
         <v>32.85958302263697</v>
@@ -32019,7 +32019,7 @@
         <v>122.5666069161267</v>
       </c>
       <c r="Q14" t="n">
-        <v>92.04241738242104</v>
+        <v>92.04241738242102</v>
       </c>
       <c r="R14" t="n">
         <v>53.54038731718357</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4560385681198893</v>
+        <v>0.4560385681198892</v>
       </c>
       <c r="H15" t="n">
         <v>4.40437248684209</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3823274161833411</v>
+        <v>0.3823274161833412</v>
       </c>
       <c r="H16" t="n">
         <v>3.399238300248254</v>
@@ -32168,7 +32168,7 @@
         <v>59.93156033863045</v>
       </c>
       <c r="N16" t="n">
-        <v>58.50652178740169</v>
+        <v>58.50652178740168</v>
       </c>
       <c r="O16" t="n">
         <v>54.04024242562355</v>
@@ -32180,7 +32180,7 @@
         <v>32.01470754967959</v>
       </c>
       <c r="R16" t="n">
-        <v>17.19083091311641</v>
+        <v>17.1908309131164</v>
       </c>
       <c r="S16" t="n">
         <v>6.662924152940588</v>
@@ -32466,7 +32466,7 @@
         <v>0.8523333901209244</v>
       </c>
       <c r="H20" t="n">
-        <v>8.728959331575918</v>
+        <v>8.72895933157592</v>
       </c>
       <c r="I20" t="n">
         <v>32.85958302263697</v>
@@ -32493,7 +32493,7 @@
         <v>122.5666069161267</v>
       </c>
       <c r="Q20" t="n">
-        <v>92.04241738242104</v>
+        <v>92.04241738242102</v>
       </c>
       <c r="R20" t="n">
         <v>53.54038731718357</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4560385681198893</v>
+        <v>0.4560385681198892</v>
       </c>
       <c r="H21" t="n">
         <v>4.40437248684209</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3823274161833411</v>
+        <v>0.3823274161833412</v>
       </c>
       <c r="H22" t="n">
         <v>3.399238300248254</v>
@@ -32642,7 +32642,7 @@
         <v>59.93156033863045</v>
       </c>
       <c r="N22" t="n">
-        <v>58.50652178740169</v>
+        <v>58.50652178740168</v>
       </c>
       <c r="O22" t="n">
         <v>54.04024242562355</v>
@@ -32654,7 +32654,7 @@
         <v>32.01470754967959</v>
       </c>
       <c r="R22" t="n">
-        <v>17.19083091311641</v>
+        <v>17.1908309131164</v>
       </c>
       <c r="S22" t="n">
         <v>6.662924152940588</v>
@@ -33177,7 +33177,7 @@
         <v>0.8523333901209244</v>
       </c>
       <c r="H29" t="n">
-        <v>8.72895933157592</v>
+        <v>8.728959331575918</v>
       </c>
       <c r="I29" t="n">
         <v>32.85958302263697</v>
@@ -33204,7 +33204,7 @@
         <v>122.5666069161267</v>
       </c>
       <c r="Q29" t="n">
-        <v>92.04241738242102</v>
+        <v>92.04241738242104</v>
       </c>
       <c r="R29" t="n">
         <v>53.54038731718357</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4560385681198892</v>
+        <v>0.4560385681198893</v>
       </c>
       <c r="H30" t="n">
         <v>4.40437248684209</v>
@@ -33332,7 +33332,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3823274161833412</v>
+        <v>0.3823274161833411</v>
       </c>
       <c r="H31" t="n">
         <v>3.399238300248254</v>
@@ -33353,7 +33353,7 @@
         <v>59.93156033863045</v>
       </c>
       <c r="N31" t="n">
-        <v>58.50652178740168</v>
+        <v>58.50652178740169</v>
       </c>
       <c r="O31" t="n">
         <v>54.04024242562355</v>
@@ -33365,7 +33365,7 @@
         <v>32.01470754967959</v>
       </c>
       <c r="R31" t="n">
-        <v>17.1908309131164</v>
+        <v>17.19083091311641</v>
       </c>
       <c r="S31" t="n">
         <v>6.662924152940588</v>
@@ -33888,7 +33888,7 @@
         <v>0.8523333901209244</v>
       </c>
       <c r="H38" t="n">
-        <v>8.728959331575918</v>
+        <v>8.72895933157592</v>
       </c>
       <c r="I38" t="n">
         <v>32.85958302263697</v>
@@ -33915,7 +33915,7 @@
         <v>122.5666069161267</v>
       </c>
       <c r="Q38" t="n">
-        <v>92.04241738242104</v>
+        <v>92.04241738242102</v>
       </c>
       <c r="R38" t="n">
         <v>53.54038731718357</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4560385681198893</v>
+        <v>0.4560385681198892</v>
       </c>
       <c r="H39" t="n">
         <v>4.40437248684209</v>
@@ -34043,7 +34043,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3823274161833411</v>
+        <v>0.3823274161833412</v>
       </c>
       <c r="H40" t="n">
         <v>3.399238300248254</v>
@@ -34064,7 +34064,7 @@
         <v>59.93156033863045</v>
       </c>
       <c r="N40" t="n">
-        <v>58.50652178740169</v>
+        <v>58.50652178740168</v>
       </c>
       <c r="O40" t="n">
         <v>54.04024242562355</v>
@@ -34076,7 +34076,7 @@
         <v>32.01470754967959</v>
       </c>
       <c r="R40" t="n">
-        <v>17.19083091311641</v>
+        <v>17.1908309131164</v>
       </c>
       <c r="S40" t="n">
         <v>6.662924152940588</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8526908464842476</v>
+        <v>0.8523333901209244</v>
       </c>
       <c r="H44" t="n">
-        <v>8.732620131556803</v>
+        <v>8.728959331575918</v>
       </c>
       <c r="I44" t="n">
-        <v>32.87336385908399</v>
+        <v>32.85958302263697</v>
       </c>
       <c r="J44" t="n">
-        <v>72.37106973179249</v>
+        <v>72.34073106977587</v>
       </c>
       <c r="K44" t="n">
-        <v>108.4654732634707</v>
+        <v>108.4200034735946</v>
       </c>
       <c r="L44" t="n">
-        <v>134.561010756563</v>
+        <v>134.5046014615079</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>149.6622853880709</v>
       </c>
       <c r="N44" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
-        <v>143.6688148605729</v>
+        <v>143.608587484737</v>
       </c>
       <c r="P44" t="n">
-        <v>122.618009587993</v>
+        <v>122.5666069161267</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.08101864827586</v>
+        <v>92.04241738242104</v>
       </c>
       <c r="R44" t="n">
-        <v>53.56284138546617</v>
+        <v>53.54038731718357</v>
       </c>
       <c r="S44" t="n">
-        <v>19.43069266425981</v>
+        <v>19.42254712738058</v>
       </c>
       <c r="T44" t="n">
-        <v>3.732654180484796</v>
+        <v>3.731089415254349</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0682152677187398</v>
+        <v>0.06818667120967394</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4562298241354165</v>
+        <v>0.4560385681198893</v>
       </c>
       <c r="H45" t="n">
-        <v>4.406219617307838</v>
+        <v>4.40437248684209</v>
       </c>
       <c r="I45" t="n">
-        <v>15.70791280466237</v>
+        <v>15.70132789360145</v>
       </c>
       <c r="J45" t="n">
-        <v>43.1037133407939</v>
+        <v>43.08564384153744</v>
       </c>
       <c r="K45" t="n">
-        <v>73.67111155786679</v>
+        <v>73.64022790557001</v>
       </c>
       <c r="L45" t="n">
         <v>90.06034685691823</v>
@@ -34468,19 +34468,19 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.2373368492858</v>
+        <v>58.21292318667219</v>
       </c>
       <c r="R45" t="n">
-        <v>28.32626925640771</v>
+        <v>28.31439460660156</v>
       </c>
       <c r="S45" t="n">
-        <v>8.474268882515295</v>
+        <v>8.470716385911096</v>
       </c>
       <c r="T45" t="n">
-        <v>1.838926352545823</v>
+        <v>1.8381554565885</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03001512000890899</v>
+        <v>0.03000253737630852</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3824877588020531</v>
+        <v>0.3823274161833411</v>
       </c>
       <c r="H46" t="n">
-        <v>3.400663891894621</v>
+        <v>3.399238300248254</v>
       </c>
       <c r="I46" t="n">
-        <v>11.50245005561084</v>
+        <v>11.49762811576812</v>
       </c>
       <c r="J46" t="n">
-        <v>27.04188454730516</v>
+        <v>27.03054832416221</v>
       </c>
       <c r="K46" t="n">
-        <v>44.43812324991126</v>
+        <v>44.41949435293726</v>
       </c>
       <c r="L46" t="n">
-        <v>56.86549824953435</v>
+        <v>56.84165967511238</v>
       </c>
       <c r="M46" t="n">
-        <v>59.95669477294365</v>
+        <v>59.93156033863045</v>
       </c>
       <c r="N46" t="n">
-        <v>58.53105858104513</v>
+        <v>58.50652178740169</v>
       </c>
       <c r="O46" t="n">
-        <v>54.0629061259484</v>
+        <v>54.04024242562355</v>
       </c>
       <c r="P46" t="n">
-        <v>46.26015584638647</v>
+        <v>46.24076313548335</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.02813405750647</v>
+        <v>32.01470754967959</v>
       </c>
       <c r="R46" t="n">
-        <v>17.19804050031777</v>
+        <v>17.19083091311641</v>
       </c>
       <c r="S46" t="n">
-        <v>6.665718487486687</v>
+        <v>6.662924152940588</v>
       </c>
       <c r="T46" t="n">
-        <v>1.634265878517863</v>
+        <v>1.633580778237912</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0208629686619302</v>
+        <v>0.02085422270090954</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
